--- a/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.1096799</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.1096799</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.1096799</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.1096799</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.1096799</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0.1096799</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0.1096799</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.1104301</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0.1104301</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.1104301</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.1104301</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0.1104301</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0.1104301</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0.1104301</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0.1110634</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0.1110634</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0.1110634</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0.1110634</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0.1110634</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.1110634</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -700,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0.1110634</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0.1116065</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0.1116065</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0.1116065</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0.1116065</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0.1116065</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -784,7 +784,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0.1116065</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -798,7 +798,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0.1116065</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -812,7 +812,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0.1121326</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -826,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0.1121326</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -840,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0.1121326</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0.1121326</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0.1121326</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>0.1121326</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -896,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>0.1121326</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>0.1127584</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -924,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>0.1127584</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>0.1127584</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -952,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>0.1127584</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -966,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>0.1127584</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -980,7 +980,7 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>0.1127584</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -994,7 +994,7 @@
         <v>42</v>
       </c>
       <c r="D43">
-        <v>0.1127584</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1008,7 +1008,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>0.1136371</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1022,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>0.1136371</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1036,7 +1036,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>0.1136371</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1050,7 +1050,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>0.1136371</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1064,7 +1064,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>0.1136371</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1078,7 +1078,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>0.1136371</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1092,7 +1092,7 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>0.1136371</v>
+        <v>0.0769446</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1106,7 +1106,7 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>0.1149525</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1120,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>0.1149525</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1134,7 +1134,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>0.1149525</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1148,7 +1148,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>0.1149525</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1162,7 +1162,7 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>0.1149525</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1176,7 +1176,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>0.1149525</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1190,7 +1190,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>0.1149525</v>
+        <v>0.0771216</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1204,7 +1204,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>0.1169183</v>
+        <v>0.0799834</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>0.1169183</v>
+        <v>0.0799834</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1232,7 +1232,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>0.1169183</v>
+        <v>0.0799834</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>0.1169183</v>
+        <v>0.0799834</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1260,7 +1260,7 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>0.1169183</v>
+        <v>0.0799834</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>62</v>
       </c>
       <c r="D63">
-        <v>0.1169183</v>
+        <v>0.0799834</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1288,7 +1288,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>0.1169183</v>
+        <v>0.0799834</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1302,7 +1302,7 @@
         <v>64</v>
       </c>
       <c r="D65">
-        <v>0.1197825</v>
+        <v>0.087121</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1316,7 +1316,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>0.1197825</v>
+        <v>0.087121</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1330,7 +1330,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>0.1197825</v>
+        <v>0.087121</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1344,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>0.1197825</v>
+        <v>0.087121</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1358,7 +1358,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>0.1197825</v>
+        <v>0.087121</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1372,7 +1372,7 @@
         <v>69</v>
       </c>
       <c r="D70">
-        <v>0.1197825</v>
+        <v>0.087121</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1386,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="D71">
-        <v>0.1197825</v>
+        <v>0.087121</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1400,7 +1400,7 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>0.1238398</v>
+        <v>0.098161</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1414,7 +1414,7 @@
         <v>72</v>
       </c>
       <c r="D73">
-        <v>0.1238398</v>
+        <v>0.098161</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1428,7 +1428,7 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <v>0.1238398</v>
+        <v>0.098161</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1442,7 +1442,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>0.1238398</v>
+        <v>0.098161</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1456,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>0.1238398</v>
+        <v>0.098161</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1470,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>0.1238398</v>
+        <v>0.098161</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="D78">
-        <v>0.1238398</v>
+        <v>0.098161</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1498,7 +1498,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>0.1294463</v>
+        <v>0.112689</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1512,7 +1512,7 @@
         <v>79</v>
       </c>
       <c r="D80">
-        <v>0.1294463</v>
+        <v>0.112689</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1526,7 +1526,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>0.1294463</v>
+        <v>0.112689</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1540,7 +1540,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>0.1294463</v>
+        <v>0.112689</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1554,7 +1554,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>0.1294463</v>
+        <v>0.112689</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>0.1294463</v>
+        <v>0.112689</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1582,7 +1582,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>0.1294463</v>
+        <v>0.112689</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1596,7 +1596,7 @@
         <v>85</v>
       </c>
       <c r="D86">
-        <v>0.1370351</v>
+        <v>0.1302938</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>0.1370351</v>
+        <v>0.1302938</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1624,7 +1624,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>0.1370351</v>
+        <v>0.1302938</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1638,7 +1638,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>0.1370351</v>
+        <v>0.1302938</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1652,7 +1652,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>0.1370351</v>
+        <v>0.1302938</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>0.1370351</v>
+        <v>0.1302938</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1680,7 +1680,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>0.1370351</v>
+        <v>0.1302938</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1694,7 +1694,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>0.1471206</v>
+        <v>0.1505676</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1708,7 +1708,7 @@
         <v>93</v>
       </c>
       <c r="D94">
-        <v>0.1471206</v>
+        <v>0.1505676</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>0.1471206</v>
+        <v>0.1505676</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1736,7 +1736,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>0.1471206</v>
+        <v>0.1505676</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1750,7 +1750,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>0.1471206</v>
+        <v>0.1505676</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>0.1471206</v>
+        <v>0.1505676</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>98</v>
       </c>
       <c r="D99">
-        <v>0.1471206</v>
+        <v>0.1505676</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1792,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>0.1602762</v>
+        <v>0.1731055</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1806,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="D101">
-        <v>0.1602762</v>
+        <v>0.1731055</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>101</v>
       </c>
       <c r="D102">
-        <v>0.1602762</v>
+        <v>0.1731055</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>102</v>
       </c>
       <c r="D103">
-        <v>0.1602762</v>
+        <v>0.1731055</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>103</v>
       </c>
       <c r="D104">
-        <v>0.1602762</v>
+        <v>0.1731055</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1862,7 +1862,7 @@
         <v>104</v>
       </c>
       <c r="D105">
-        <v>0.1602762</v>
+        <v>0.1731055</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>105</v>
       </c>
       <c r="D106">
-        <v>0.1602762</v>
+        <v>0.1731055</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>106</v>
       </c>
       <c r="D107">
-        <v>0.1770611</v>
+        <v>0.1975061</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>107</v>
       </c>
       <c r="D108">
-        <v>0.1770611</v>
+        <v>0.1975061</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>108</v>
       </c>
       <c r="D109">
-        <v>0.1770611</v>
+        <v>0.1975061</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>109</v>
       </c>
       <c r="D110">
-        <v>0.1770611</v>
+        <v>0.1975061</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="D111">
-        <v>0.1770611</v>
+        <v>0.1975061</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>111</v>
       </c>
       <c r="D112">
-        <v>0.1770611</v>
+        <v>0.1975061</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>112</v>
       </c>
       <c r="D113">
-        <v>0.1770611</v>
+        <v>0.1975061</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1988,7 +1988,7 @@
         <v>113</v>
       </c>
       <c r="D114">
-        <v>0.1978778</v>
+        <v>0.2233712</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>114</v>
       </c>
       <c r="D115">
-        <v>0.1978778</v>
+        <v>0.2233712</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2016,7 +2016,7 @@
         <v>115</v>
       </c>
       <c r="D116">
-        <v>0.1978778</v>
+        <v>0.2233712</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2030,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="D117">
-        <v>0.1978778</v>
+        <v>0.2233712</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2044,7 +2044,7 @@
         <v>117</v>
       </c>
       <c r="D118">
-        <v>0.1978778</v>
+        <v>0.2233712</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="D119">
-        <v>0.1978778</v>
+        <v>0.2233712</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2072,7 +2072,7 @@
         <v>119</v>
       </c>
       <c r="D120">
-        <v>0.1978778</v>
+        <v>0.2233712</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2086,7 +2086,7 @@
         <v>120</v>
       </c>
       <c r="D121">
-        <v>0.2227668</v>
+        <v>0.2503059</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2100,7 +2100,7 @@
         <v>121</v>
       </c>
       <c r="D122">
-        <v>0.2227668</v>
+        <v>0.2503059</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="D123">
-        <v>0.2227668</v>
+        <v>0.2503059</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>123</v>
       </c>
       <c r="D124">
-        <v>0.2227668</v>
+        <v>0.2503059</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>124</v>
       </c>
       <c r="D125">
-        <v>0.2227668</v>
+        <v>0.2503059</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>125</v>
       </c>
       <c r="D126">
-        <v>0.2227668</v>
+        <v>0.2503059</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>126</v>
       </c>
       <c r="D127">
-        <v>0.2227668</v>
+        <v>0.2503059</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>127</v>
       </c>
       <c r="D128">
-        <v>0.2512066</v>
+        <v>0.2779184</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2198,7 +2198,7 @@
         <v>128</v>
       </c>
       <c r="D129">
-        <v>0.2512066</v>
+        <v>0.2779184</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2212,7 +2212,7 @@
         <v>129</v>
       </c>
       <c r="D130">
-        <v>0.2512066</v>
+        <v>0.2779184</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>130</v>
       </c>
       <c r="D131">
-        <v>0.2512066</v>
+        <v>0.2779184</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2240,7 +2240,7 @@
         <v>131</v>
       </c>
       <c r="D132">
-        <v>0.2512066</v>
+        <v>0.2779184</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>132</v>
       </c>
       <c r="D133">
-        <v>0.2512066</v>
+        <v>0.2779184</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2268,7 +2268,7 @@
         <v>133</v>
       </c>
       <c r="D134">
-        <v>0.2512066</v>
+        <v>0.2779184</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>134</v>
       </c>
       <c r="D135">
-        <v>0.2820407</v>
+        <v>0.3058201</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>135</v>
       </c>
       <c r="D136">
-        <v>0.2820407</v>
+        <v>0.3058201</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2310,7 +2310,7 @@
         <v>136</v>
       </c>
       <c r="D137">
-        <v>0.2820407</v>
+        <v>0.3058201</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2324,7 +2324,7 @@
         <v>137</v>
       </c>
       <c r="D138">
-        <v>0.2820407</v>
+        <v>0.3058201</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>138</v>
       </c>
       <c r="D139">
-        <v>0.2820407</v>
+        <v>0.3058201</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>139</v>
       </c>
       <c r="D140">
-        <v>0.2820407</v>
+        <v>0.3058201</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2366,7 +2366,7 @@
         <v>140</v>
       </c>
       <c r="D141">
-        <v>0.2820407</v>
+        <v>0.3058201</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2380,7 +2380,7 @@
         <v>141</v>
       </c>
       <c r="D142">
-        <v>0.3136407</v>
+        <v>0.3336259</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>142</v>
       </c>
       <c r="D143">
-        <v>0.3136407</v>
+        <v>0.3336259</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2408,7 +2408,7 @@
         <v>143</v>
       </c>
       <c r="D144">
-        <v>0.3136407</v>
+        <v>0.3336259</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2422,7 +2422,7 @@
         <v>144</v>
       </c>
       <c r="D145">
-        <v>0.3136407</v>
+        <v>0.3336259</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2436,7 +2436,7 @@
         <v>145</v>
       </c>
       <c r="D146">
-        <v>0.3136407</v>
+        <v>0.3336259</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>146</v>
       </c>
       <c r="D147">
-        <v>0.3136407</v>
+        <v>0.3336259</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>147</v>
       </c>
       <c r="D148">
-        <v>0.3136407</v>
+        <v>0.3336259</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2478,7 +2478,7 @@
         <v>148</v>
       </c>
       <c r="D149">
-        <v>0.3442831</v>
+        <v>0.3609536</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2492,7 +2492,7 @@
         <v>149</v>
       </c>
       <c r="D150">
-        <v>0.3442831</v>
+        <v>0.3609536</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>150</v>
       </c>
       <c r="D151">
-        <v>0.3442831</v>
+        <v>0.3609536</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2520,7 +2520,7 @@
         <v>151</v>
       </c>
       <c r="D152">
-        <v>0.3442831</v>
+        <v>0.3609536</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>152</v>
       </c>
       <c r="D153">
-        <v>0.3442831</v>
+        <v>0.3609536</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>153</v>
       </c>
       <c r="D154">
-        <v>0.3442831</v>
+        <v>0.3609536</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2562,7 +2562,7 @@
         <v>154</v>
       </c>
       <c r="D155">
-        <v>0.3442831</v>
+        <v>0.3609536</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2576,7 +2576,7 @@
         <v>155</v>
       </c>
       <c r="D156">
-        <v>0.3725616</v>
+        <v>0.3874246</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>156</v>
       </c>
       <c r="D157">
-        <v>0.3725616</v>
+        <v>0.3874246</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>157</v>
       </c>
       <c r="D158">
-        <v>0.3725616</v>
+        <v>0.3874246</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>158</v>
       </c>
       <c r="D159">
-        <v>0.3725616</v>
+        <v>0.3874246</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2632,7 +2632,7 @@
         <v>159</v>
       </c>
       <c r="D160">
-        <v>0.3725616</v>
+        <v>0.3874246</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>160</v>
       </c>
       <c r="D161">
-        <v>0.3725616</v>
+        <v>0.3874246</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2660,7 +2660,7 @@
         <v>161</v>
       </c>
       <c r="D162">
-        <v>0.3725616</v>
+        <v>0.3874246</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>162</v>
       </c>
       <c r="D163">
-        <v>0.3976302</v>
+        <v>0.4126632</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>163</v>
       </c>
       <c r="D164">
-        <v>0.3976302</v>
+        <v>0.4126632</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2702,7 +2702,7 @@
         <v>164</v>
       </c>
       <c r="D165">
-        <v>0.3976302</v>
+        <v>0.4126632</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>165</v>
       </c>
       <c r="D166">
-        <v>0.3976302</v>
+        <v>0.4126632</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2730,7 +2730,7 @@
         <v>166</v>
       </c>
       <c r="D167">
-        <v>0.3976302</v>
+        <v>0.4126632</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2744,7 +2744,7 @@
         <v>167</v>
       </c>
       <c r="D168">
-        <v>0.3976302</v>
+        <v>0.4126632</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2758,7 +2758,7 @@
         <v>168</v>
       </c>
       <c r="D169">
-        <v>0.3976302</v>
+        <v>0.4126632</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2772,7 +2772,7 @@
         <v>169</v>
       </c>
       <c r="D170">
-        <v>0.4192055</v>
+        <v>0.4362971</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2786,7 +2786,7 @@
         <v>170</v>
       </c>
       <c r="D171">
-        <v>0.4192055</v>
+        <v>0.4362971</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2800,7 +2800,7 @@
         <v>171</v>
       </c>
       <c r="D172">
-        <v>0.4192055</v>
+        <v>0.4362971</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2814,7 +2814,7 @@
         <v>172</v>
       </c>
       <c r="D173">
-        <v>0.4192055</v>
+        <v>0.4362971</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>173</v>
       </c>
       <c r="D174">
-        <v>0.4192055</v>
+        <v>0.4362971</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>174</v>
       </c>
       <c r="D175">
-        <v>0.4192055</v>
+        <v>0.4362971</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>175</v>
       </c>
       <c r="D176">
-        <v>0.4192055</v>
+        <v>0.4362971</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2870,7 +2870,7 @@
         <v>176</v>
       </c>
       <c r="D177">
-        <v>0.4374039</v>
+        <v>0.4579573</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2884,7 +2884,7 @@
         <v>177</v>
       </c>
       <c r="D178">
-        <v>0.4374039</v>
+        <v>0.4579573</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>178</v>
       </c>
       <c r="D179">
-        <v>0.4374039</v>
+        <v>0.4579573</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2912,7 +2912,7 @@
         <v>179</v>
       </c>
       <c r="D180">
-        <v>0.4374039</v>
+        <v>0.4579573</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>180</v>
       </c>
       <c r="D181">
-        <v>0.4374039</v>
+        <v>0.4579573</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2940,7 +2940,7 @@
         <v>181</v>
       </c>
       <c r="D182">
-        <v>0.4374039</v>
+        <v>0.4579573</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>182</v>
       </c>
       <c r="D183">
-        <v>0.4374039</v>
+        <v>0.4579573</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2968,7 +2968,7 @@
         <v>183</v>
       </c>
       <c r="D184">
-        <v>0.4525402</v>
+        <v>0.4772779</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2982,7 +2982,7 @@
         <v>184</v>
       </c>
       <c r="D185">
-        <v>0.4525402</v>
+        <v>0.4772779</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2996,7 +2996,7 @@
         <v>185</v>
       </c>
       <c r="D186">
-        <v>0.4525402</v>
+        <v>0.4772779</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>186</v>
       </c>
       <c r="D187">
-        <v>0.4525402</v>
+        <v>0.4772779</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3024,7 +3024,7 @@
         <v>187</v>
       </c>
       <c r="D188">
-        <v>0.4525402</v>
+        <v>0.4772779</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3038,7 +3038,7 @@
         <v>188</v>
       </c>
       <c r="D189">
-        <v>0.4525402</v>
+        <v>0.4772779</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3052,7 +3052,7 @@
         <v>189</v>
       </c>
       <c r="D190">
-        <v>0.4525402</v>
+        <v>0.4772779</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3066,7 +3066,7 @@
         <v>190</v>
       </c>
       <c r="D191">
-        <v>0.4649707</v>
+        <v>0.4938963</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3080,7 +3080,7 @@
         <v>191</v>
       </c>
       <c r="D192">
-        <v>0.4649707</v>
+        <v>0.4938963</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3094,7 +3094,7 @@
         <v>192</v>
       </c>
       <c r="D193">
-        <v>0.4649707</v>
+        <v>0.4938963</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3108,7 +3108,7 @@
         <v>193</v>
       </c>
       <c r="D194">
-        <v>0.4649707</v>
+        <v>0.4938963</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3122,7 +3122,7 @@
         <v>194</v>
       </c>
       <c r="D195">
-        <v>0.4649707</v>
+        <v>0.4938963</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>195</v>
       </c>
       <c r="D196">
-        <v>0.4649707</v>
+        <v>0.4938963</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3150,7 +3150,7 @@
         <v>196</v>
       </c>
       <c r="D197">
-        <v>0.4649707</v>
+        <v>0.4938963</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3164,7 +3164,7 @@
         <v>197</v>
       </c>
       <c r="D198">
-        <v>0.4749986</v>
+        <v>0.5074532</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3178,7 +3178,7 @@
         <v>198</v>
       </c>
       <c r="D199">
-        <v>0.4749986</v>
+        <v>0.5074532</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3192,7 +3192,7 @@
         <v>199</v>
       </c>
       <c r="D200">
-        <v>0.4749986</v>
+        <v>0.5074532</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3206,7 +3206,7 @@
         <v>200</v>
       </c>
       <c r="D201">
-        <v>0.4749986</v>
+        <v>0.5074532</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3220,7 +3220,7 @@
         <v>201</v>
       </c>
       <c r="D202">
-        <v>0.4749986</v>
+        <v>0.5074532</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3234,7 +3234,7 @@
         <v>202</v>
       </c>
       <c r="D203">
-        <v>0.4749986</v>
+        <v>0.5074532</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3248,7 +3248,7 @@
         <v>203</v>
       </c>
       <c r="D204">
-        <v>0.4749986</v>
+        <v>0.5074532</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3262,7 +3262,7 @@
         <v>204</v>
       </c>
       <c r="D205">
-        <v>0.4828248</v>
+        <v>0.5175924</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>205</v>
       </c>
       <c r="D206">
-        <v>0.4828248</v>
+        <v>0.5175924</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>206</v>
       </c>
       <c r="D207">
-        <v>0.4828248</v>
+        <v>0.5175924</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>207</v>
       </c>
       <c r="D208">
-        <v>0.4828248</v>
+        <v>0.5175924</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3318,7 +3318,7 @@
         <v>208</v>
       </c>
       <c r="D209">
-        <v>0.4828248</v>
+        <v>0.5175924</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3332,7 +3332,7 @@
         <v>209</v>
       </c>
       <c r="D210">
-        <v>0.4828248</v>
+        <v>0.5175924</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>210</v>
       </c>
       <c r="D211">
-        <v>0.4828248</v>
+        <v>0.5175924</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>211</v>
       </c>
       <c r="D212">
-        <v>0.4885228</v>
+        <v>0.5239612</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>212</v>
       </c>
       <c r="D213">
-        <v>0.4885228</v>
+        <v>0.5239612</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>213</v>
       </c>
       <c r="D214">
-        <v>0.4885228</v>
+        <v>0.5239612</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>214</v>
       </c>
       <c r="D215">
-        <v>0.4885228</v>
+        <v>0.5239612</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3416,7 +3416,7 @@
         <v>215</v>
       </c>
       <c r="D216">
-        <v>0.4885228</v>
+        <v>0.5239612</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3430,7 +3430,7 @@
         <v>216</v>
       </c>
       <c r="D217">
-        <v>0.4885228</v>
+        <v>0.5239612</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>217</v>
       </c>
       <c r="D218">
-        <v>0.4885228</v>
+        <v>0.5239612</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>218</v>
       </c>
       <c r="D219">
-        <v>0.4920279</v>
+        <v>0.5262097</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>219</v>
       </c>
       <c r="D220">
-        <v>0.4920279</v>
+        <v>0.5262097</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>220</v>
       </c>
       <c r="D221">
-        <v>0.4920279</v>
+        <v>0.5262097</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3500,7 +3500,7 @@
         <v>221</v>
       </c>
       <c r="D222">
-        <v>0.4920279</v>
+        <v>0.5262097</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>222</v>
       </c>
       <c r="D223">
-        <v>0.4920279</v>
+        <v>0.5262097</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>223</v>
       </c>
       <c r="D224">
-        <v>0.4920279</v>
+        <v>0.5262097</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3542,7 +3542,7 @@
         <v>224</v>
       </c>
       <c r="D225">
-        <v>0.4920279</v>
+        <v>0.5262097</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3556,7 +3556,7 @@
         <v>225</v>
       </c>
       <c r="D226">
-        <v>0.4931485</v>
+        <v>0.5239916999999999</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3570,7 +3570,7 @@
         <v>226</v>
       </c>
       <c r="D227">
-        <v>0.4931485</v>
+        <v>0.5239916999999999</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>227</v>
       </c>
       <c r="D228">
-        <v>0.4931485</v>
+        <v>0.5239916999999999</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>228</v>
       </c>
       <c r="D229">
-        <v>0.4931485</v>
+        <v>0.5239916999999999</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>229</v>
       </c>
       <c r="D230">
-        <v>0.4931485</v>
+        <v>0.5239916999999999</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3626,7 +3626,7 @@
         <v>230</v>
       </c>
       <c r="D231">
-        <v>0.4931485</v>
+        <v>0.5239916999999999</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3640,7 +3640,7 @@
         <v>231</v>
       </c>
       <c r="D232">
-        <v>0.4931485</v>
+        <v>0.5239916999999999</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3654,7 +3654,7 @@
         <v>232</v>
       </c>
       <c r="D233">
-        <v>0.4916182</v>
+        <v>0.5169639</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>233</v>
       </c>
       <c r="D234">
-        <v>0.4916182</v>
+        <v>0.5169639</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>234</v>
       </c>
       <c r="D235">
-        <v>0.4916182</v>
+        <v>0.5169639</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>235</v>
       </c>
       <c r="D236">
-        <v>0.4916182</v>
+        <v>0.5169639</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3710,7 +3710,7 @@
         <v>236</v>
       </c>
       <c r="D237">
-        <v>0.4916182</v>
+        <v>0.5169639</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3724,7 +3724,7 @@
         <v>237</v>
       </c>
       <c r="D238">
-        <v>0.4916182</v>
+        <v>0.5169639</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>238</v>
       </c>
       <c r="D239">
-        <v>0.4916182</v>
+        <v>0.5169639</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>239</v>
       </c>
       <c r="D240">
-        <v>0.4872079</v>
+        <v>0.5047865</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3766,7 +3766,7 @@
         <v>240</v>
       </c>
       <c r="D241">
-        <v>0.4872079</v>
+        <v>0.5047865</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3780,7 +3780,7 @@
         <v>241</v>
       </c>
       <c r="D242">
-        <v>0.4872079</v>
+        <v>0.5047865</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>242</v>
       </c>
       <c r="D243">
-        <v>0.4872079</v>
+        <v>0.5047865</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3808,7 +3808,7 @@
         <v>243</v>
       </c>
       <c r="D244">
-        <v>0.4872079</v>
+        <v>0.5047865</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>244</v>
       </c>
       <c r="D245">
-        <v>0.4872079</v>
+        <v>0.5047865</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3836,7 +3836,7 @@
         <v>245</v>
       </c>
       <c r="D246">
-        <v>0.4872079</v>
+        <v>0.5047865</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>246</v>
       </c>
       <c r="D247">
-        <v>0.4798906</v>
+        <v>0.4871227</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3864,7 +3864,7 @@
         <v>247</v>
       </c>
       <c r="D248">
-        <v>0.4798906</v>
+        <v>0.4871227</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>248</v>
       </c>
       <c r="D249">
-        <v>0.4798906</v>
+        <v>0.4871227</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3892,7 +3892,7 @@
         <v>249</v>
       </c>
       <c r="D250">
-        <v>0.4798906</v>
+        <v>0.4871227</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3906,7 +3906,7 @@
         <v>250</v>
       </c>
       <c r="D251">
-        <v>0.4798906</v>
+        <v>0.4871227</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>251</v>
       </c>
       <c r="D252">
-        <v>0.4798906</v>
+        <v>0.4871227</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>252</v>
       </c>
       <c r="D253">
-        <v>0.4798906</v>
+        <v>0.4871227</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>253</v>
       </c>
       <c r="D254">
-        <v>0.4700039</v>
+        <v>0.4636391</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>254</v>
       </c>
       <c r="D255">
-        <v>0.4700039</v>
+        <v>0.4636391</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>255</v>
       </c>
       <c r="D256">
-        <v>0.4700039</v>
+        <v>0.4636391</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3990,7 +3990,7 @@
         <v>256</v>
       </c>
       <c r="D257">
-        <v>0.4700039</v>
+        <v>0.4636391</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4004,7 +4004,7 @@
         <v>257</v>
       </c>
       <c r="D258">
-        <v>0.4700039</v>
+        <v>0.4636391</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>258</v>
       </c>
       <c r="D259">
-        <v>0.4700039</v>
+        <v>0.4636391</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>259</v>
       </c>
       <c r="D260">
-        <v>0.4700039</v>
+        <v>0.4636391</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>260</v>
       </c>
       <c r="D261">
-        <v>0.4583072</v>
+        <v>0.4340055</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>261</v>
       </c>
       <c r="D262">
-        <v>0.4583072</v>
+        <v>0.4340055</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>262</v>
       </c>
       <c r="D263">
-        <v>0.4583072</v>
+        <v>0.4340055</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4088,7 +4088,7 @@
         <v>263</v>
       </c>
       <c r="D264">
-        <v>0.4583072</v>
+        <v>0.4340055</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>264</v>
       </c>
       <c r="D265">
-        <v>0.4583072</v>
+        <v>0.4340055</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>265</v>
       </c>
       <c r="D266">
-        <v>0.4583072</v>
+        <v>0.4340055</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>266</v>
       </c>
       <c r="D267">
-        <v>0.4583072</v>
+        <v>0.4340055</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>267</v>
       </c>
       <c r="D268">
-        <v>0.4458576</v>
+        <v>0.3978949</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>268</v>
       </c>
       <c r="D269">
-        <v>0.4458576</v>
+        <v>0.3978949</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>269</v>
       </c>
       <c r="D270">
-        <v>0.4458576</v>
+        <v>0.3978949</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>270</v>
       </c>
       <c r="D271">
-        <v>0.4458576</v>
+        <v>0.3978949</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4200,7 +4200,7 @@
         <v>271</v>
       </c>
       <c r="D272">
-        <v>0.4458576</v>
+        <v>0.3978949</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4214,7 +4214,7 @@
         <v>272</v>
       </c>
       <c r="D273">
-        <v>0.4458576</v>
+        <v>0.3978949</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4228,7 +4228,7 @@
         <v>273</v>
       </c>
       <c r="D274">
-        <v>0.4458576</v>
+        <v>0.3978949</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>274</v>
       </c>
       <c r="D275">
-        <v>0.4337428</v>
+        <v>0.3549836</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>275</v>
       </c>
       <c r="D276">
-        <v>0.4337428</v>
+        <v>0.3549836</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4270,7 +4270,7 @@
         <v>276</v>
       </c>
       <c r="D277">
-        <v>0.4337428</v>
+        <v>0.3549836</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4284,7 +4284,7 @@
         <v>277</v>
       </c>
       <c r="D278">
-        <v>0.4337428</v>
+        <v>0.3549836</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4298,7 +4298,7 @@
         <v>278</v>
       </c>
       <c r="D279">
-        <v>0.4337428</v>
+        <v>0.3549836</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>279</v>
       </c>
       <c r="D280">
-        <v>0.4337428</v>
+        <v>0.3549836</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4326,7 +4326,7 @@
         <v>280</v>
       </c>
       <c r="D281">
-        <v>0.4337428</v>
+        <v>0.3549836</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>281</v>
       </c>
       <c r="D282">
-        <v>0.4228151</v>
+        <v>0.3049511</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4354,7 +4354,7 @@
         <v>282</v>
       </c>
       <c r="D283">
-        <v>0.4228151</v>
+        <v>0.3049511</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>283</v>
       </c>
       <c r="D284">
-        <v>0.4228151</v>
+        <v>0.3049511</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4382,7 +4382,7 @@
         <v>284</v>
       </c>
       <c r="D285">
-        <v>0.4228151</v>
+        <v>0.3049511</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>285</v>
       </c>
       <c r="D286">
-        <v>0.4228151</v>
+        <v>0.3049511</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>286</v>
       </c>
       <c r="D287">
-        <v>0.4228151</v>
+        <v>0.3049511</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4424,7 +4424,7 @@
         <v>287</v>
       </c>
       <c r="D288">
-        <v>0.4228151</v>
+        <v>0.3049511</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4438,7 +4438,7 @@
         <v>288</v>
       </c>
       <c r="D289">
-        <v>0.4135557</v>
+        <v>0.2474801</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4452,7 +4452,7 @@
         <v>289</v>
       </c>
       <c r="D290">
-        <v>0.4135557</v>
+        <v>0.2474801</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4466,7 +4466,7 @@
         <v>290</v>
       </c>
       <c r="D291">
-        <v>0.4135557</v>
+        <v>0.2474801</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4480,7 +4480,7 @@
         <v>291</v>
       </c>
       <c r="D292">
-        <v>0.4135557</v>
+        <v>0.2474801</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4494,7 +4494,7 @@
         <v>292</v>
       </c>
       <c r="D293">
-        <v>0.4135557</v>
+        <v>0.2474801</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4508,7 +4508,7 @@
         <v>293</v>
       </c>
       <c r="D294">
-        <v>0.4135557</v>
+        <v>0.2474801</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4522,7 +4522,7 @@
         <v>294</v>
       </c>
       <c r="D295">
-        <v>0.4135557</v>
+        <v>0.2474801</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4536,7 +4536,7 @@
         <v>295</v>
       </c>
       <c r="D296">
-        <v>0.4060944</v>
+        <v>0.1822566</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4550,7 +4550,7 @@
         <v>296</v>
       </c>
       <c r="D297">
-        <v>0.4060944</v>
+        <v>0.1822566</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4564,7 +4564,7 @@
         <v>297</v>
       </c>
       <c r="D298">
-        <v>0.4060944</v>
+        <v>0.1822566</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4578,7 +4578,7 @@
         <v>298</v>
       </c>
       <c r="D299">
-        <v>0.4060944</v>
+        <v>0.1822566</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4592,7 +4592,7 @@
         <v>299</v>
       </c>
       <c r="D300">
-        <v>0.4060944</v>
+        <v>0.1822566</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4606,7 +4606,7 @@
         <v>300</v>
       </c>
       <c r="D301">
-        <v>0.4060944</v>
+        <v>0.1822566</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>301</v>
       </c>
       <c r="D302">
-        <v>0.4060944</v>
+        <v>0.1822566</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4634,7 +4634,7 @@
         <v>302</v>
       </c>
       <c r="D303">
-        <v>0.4003178</v>
+        <v>0.1089699</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4648,7 +4648,7 @@
         <v>303</v>
       </c>
       <c r="D304">
-        <v>0.4003178</v>
+        <v>0.1089699</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4662,7 +4662,7 @@
         <v>304</v>
       </c>
       <c r="D305">
-        <v>0.4003178</v>
+        <v>0.1089699</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>305</v>
       </c>
       <c r="D306">
-        <v>0.4003178</v>
+        <v>0.1089699</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4690,7 +4690,7 @@
         <v>306</v>
       </c>
       <c r="D307">
-        <v>0.4003178</v>
+        <v>0.1089699</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4704,7 +4704,7 @@
         <v>307</v>
       </c>
       <c r="D308">
-        <v>0.4003178</v>
+        <v>0.1089699</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4718,7 +4718,7 @@
         <v>308</v>
       </c>
       <c r="D309">
-        <v>0.4003178</v>
+        <v>0.1089699</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4732,7 +4732,7 @@
         <v>309</v>
       </c>
       <c r="D310">
-        <v>0.3959884</v>
+        <v>0.0291297</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>310</v>
       </c>
       <c r="D311">
-        <v>0.3959884</v>
+        <v>0.0291297</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>311</v>
       </c>
       <c r="D312">
-        <v>0.3959884</v>
+        <v>0.0291297</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>312</v>
       </c>
       <c r="D313">
-        <v>0.3959884</v>
+        <v>0.0291297</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>313</v>
       </c>
       <c r="D314">
-        <v>0.3959884</v>
+        <v>0.0291297</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>314</v>
       </c>
       <c r="D315">
-        <v>0.3959884</v>
+        <v>0.0291297</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>315</v>
       </c>
       <c r="D316">
-        <v>0.3959884</v>
+        <v>0.0291297</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>316</v>
       </c>
       <c r="D317">
-        <v>0.3928337</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>317</v>
       </c>
       <c r="D318">
-        <v>0.3928337</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>318</v>
       </c>
       <c r="D319">
-        <v>0.3928337</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>319</v>
       </c>
       <c r="D320">
-        <v>0.3928337</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>320</v>
       </c>
       <c r="D321">
-        <v>0.3928337</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>321</v>
       </c>
       <c r="D322">
-        <v>0.3928337</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>322</v>
       </c>
       <c r="D323">
-        <v>0.3928337</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>323</v>
       </c>
       <c r="D324">
-        <v>0.3905969</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>324</v>
       </c>
       <c r="D325">
-        <v>0.3905969</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>325</v>
       </c>
       <c r="D326">
-        <v>0.3905969</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>326</v>
       </c>
       <c r="D327">
-        <v>0.3905969</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>327</v>
       </c>
       <c r="D328">
-        <v>0.3905969</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>328</v>
       </c>
       <c r="D329">
-        <v>0.3905969</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>329</v>
       </c>
       <c r="D330">
-        <v>0.3905969</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>330</v>
       </c>
       <c r="D331">
-        <v>0.3890587</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>331</v>
       </c>
       <c r="D332">
-        <v>0.3890587</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>332</v>
       </c>
       <c r="D333">
-        <v>0.3890587</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>333</v>
       </c>
       <c r="D334">
-        <v>0.3890587</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>334</v>
       </c>
       <c r="D335">
-        <v>0.3890587</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>335</v>
       </c>
       <c r="D336">
-        <v>0.3890587</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>336</v>
       </c>
       <c r="D337">
-        <v>0.3890587</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5124,7 +5124,7 @@
         <v>337</v>
       </c>
       <c r="D338">
-        <v>0.3880418</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5138,7 +5138,7 @@
         <v>338</v>
       </c>
       <c r="D339">
-        <v>0.3880418</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5152,7 +5152,7 @@
         <v>339</v>
       </c>
       <c r="D340">
-        <v>0.3880418</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5166,7 +5166,7 @@
         <v>340</v>
       </c>
       <c r="D341">
-        <v>0.3880418</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5180,7 +5180,7 @@
         <v>341</v>
       </c>
       <c r="D342">
-        <v>0.3880418</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5194,7 +5194,7 @@
         <v>342</v>
       </c>
       <c r="D343">
-        <v>0.3880418</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5208,7 +5208,7 @@
         <v>343</v>
       </c>
       <c r="D344">
-        <v>0.3880418</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5222,7 +5222,7 @@
         <v>344</v>
       </c>
       <c r="D345">
-        <v>0.3874078</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5236,7 +5236,7 @@
         <v>345</v>
       </c>
       <c r="D346">
-        <v>0.3874078</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5250,7 +5250,7 @@
         <v>346</v>
       </c>
       <c r="D347">
-        <v>0.3874078</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5264,7 +5264,7 @@
         <v>347</v>
       </c>
       <c r="D348">
-        <v>0.3874078</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5278,7 +5278,7 @@
         <v>348</v>
       </c>
       <c r="D349">
-        <v>0.3874078</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5292,7 +5292,7 @@
         <v>349</v>
       </c>
       <c r="D350">
-        <v>0.3874078</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5306,7 +5306,7 @@
         <v>350</v>
       </c>
       <c r="D351">
-        <v>0.3874078</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>351</v>
       </c>
       <c r="D352">
-        <v>0.3870502</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5334,7 +5334,7 @@
         <v>352</v>
       </c>
       <c r="D353">
-        <v>0.3870502</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5348,7 +5348,7 @@
         <v>353</v>
       </c>
       <c r="D354">
-        <v>0.3870502</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>354</v>
       </c>
       <c r="D355">
-        <v>0.3870502</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5376,7 +5376,7 @@
         <v>355</v>
       </c>
       <c r="D356">
-        <v>0.3870502</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5390,7 +5390,7 @@
         <v>356</v>
       </c>
       <c r="D357">
-        <v>0.3870502</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5404,7 +5404,7 @@
         <v>357</v>
       </c>
       <c r="D358">
-        <v>0.3870502</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5418,7 +5418,7 @@
         <v>358</v>
       </c>
       <c r="D359">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5432,7 +5432,7 @@
         <v>359</v>
       </c>
       <c r="D360">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5446,7 +5446,7 @@
         <v>360</v>
       </c>
       <c r="D361">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5460,7 +5460,7 @@
         <v>361</v>
       </c>
       <c r="D362">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5474,7 +5474,7 @@
         <v>362</v>
       </c>
       <c r="D363">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5488,7 +5488,7 @@
         <v>363</v>
       </c>
       <c r="D364">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5502,7 +5502,7 @@
         <v>364</v>
       </c>
       <c r="D365">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5516,7 +5516,7 @@
         <v>365</v>
       </c>
       <c r="D366">
-        <v>0.3868839</v>
+        <v>0.0027591</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -700,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -784,7 +784,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -798,7 +798,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -812,7 +812,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -826,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -840,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -896,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -924,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -952,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -966,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -980,7 +980,7 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -994,7 +994,7 @@
         <v>42</v>
       </c>
       <c r="D43">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1008,7 +1008,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1022,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1036,7 +1036,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1050,7 +1050,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1064,7 +1064,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1078,7 +1078,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1092,7 +1092,7 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>0.0769446</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1106,7 +1106,7 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>0.0771216</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1120,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>0.0771216</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1134,7 +1134,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>0.0771216</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1148,7 +1148,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>0.0771216</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1162,7 +1162,7 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>0.0771216</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1176,7 +1176,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>0.0771216</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1190,7 +1190,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>0.0771216</v>
+        <v>0.09059</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1204,7 +1204,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>0.0799834</v>
+        <v>0.091186</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>0.0799834</v>
+        <v>0.091186</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1232,7 +1232,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>0.0799834</v>
+        <v>0.091186</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>0.0799834</v>
+        <v>0.091186</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1260,7 +1260,7 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>0.0799834</v>
+        <v>0.091186</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>62</v>
       </c>
       <c r="D63">
-        <v>0.0799834</v>
+        <v>0.091186</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1288,7 +1288,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>0.0799834</v>
+        <v>0.091186</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1302,7 +1302,7 @@
         <v>64</v>
       </c>
       <c r="D65">
-        <v>0.087121</v>
+        <v>0.095122</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1316,7 +1316,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>0.087121</v>
+        <v>0.095122</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1330,7 +1330,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>0.087121</v>
+        <v>0.095122</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1344,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>0.087121</v>
+        <v>0.095122</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1358,7 +1358,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>0.087121</v>
+        <v>0.095122</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1372,7 +1372,7 @@
         <v>69</v>
       </c>
       <c r="D70">
-        <v>0.087121</v>
+        <v>0.095122</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1386,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="D71">
-        <v>0.087121</v>
+        <v>0.095122</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1400,7 +1400,7 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>0.098161</v>
+        <v>0.1028745</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1414,7 +1414,7 @@
         <v>72</v>
       </c>
       <c r="D73">
-        <v>0.098161</v>
+        <v>0.1028745</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1428,7 +1428,7 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <v>0.098161</v>
+        <v>0.1028745</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1442,7 +1442,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>0.098161</v>
+        <v>0.1028745</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1456,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>0.098161</v>
+        <v>0.1028745</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1470,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>0.098161</v>
+        <v>0.1028745</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="D78">
-        <v>0.098161</v>
+        <v>0.1028745</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1498,7 +1498,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>0.112689</v>
+        <v>0.1140354</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1512,7 +1512,7 @@
         <v>79</v>
       </c>
       <c r="D80">
-        <v>0.112689</v>
+        <v>0.1140354</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1526,7 +1526,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>0.112689</v>
+        <v>0.1140354</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1540,7 +1540,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>0.112689</v>
+        <v>0.1140354</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1554,7 +1554,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>0.112689</v>
+        <v>0.1140354</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>0.112689</v>
+        <v>0.1140354</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1582,7 +1582,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>0.112689</v>
+        <v>0.1140354</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1596,7 +1596,7 @@
         <v>85</v>
       </c>
       <c r="D86">
-        <v>0.1302938</v>
+        <v>0.1282032</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>0.1302938</v>
+        <v>0.1282032</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1624,7 +1624,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>0.1302938</v>
+        <v>0.1282032</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1638,7 +1638,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>0.1302938</v>
+        <v>0.1282032</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1652,7 +1652,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>0.1302938</v>
+        <v>0.1282032</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>0.1302938</v>
+        <v>0.1282032</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1680,7 +1680,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>0.1302938</v>
+        <v>0.1282032</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1694,7 +1694,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>0.1505676</v>
+        <v>0.144983</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1708,7 +1708,7 @@
         <v>93</v>
       </c>
       <c r="D94">
-        <v>0.1505676</v>
+        <v>0.144983</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>0.1505676</v>
+        <v>0.144983</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1736,7 +1736,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>0.1505676</v>
+        <v>0.144983</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1750,7 +1750,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>0.1505676</v>
+        <v>0.144983</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>0.1505676</v>
+        <v>0.144983</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>98</v>
       </c>
       <c r="D99">
-        <v>0.1505676</v>
+        <v>0.144983</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1792,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>0.1731055</v>
+        <v>0.1639864</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1806,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="D101">
-        <v>0.1731055</v>
+        <v>0.1639864</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>101</v>
       </c>
       <c r="D102">
-        <v>0.1731055</v>
+        <v>0.1639864</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>102</v>
       </c>
       <c r="D103">
-        <v>0.1731055</v>
+        <v>0.1639864</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>103</v>
       </c>
       <c r="D104">
-        <v>0.1731055</v>
+        <v>0.1639864</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1862,7 +1862,7 @@
         <v>104</v>
       </c>
       <c r="D105">
-        <v>0.1731055</v>
+        <v>0.1639864</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>105</v>
       </c>
       <c r="D106">
-        <v>0.1731055</v>
+        <v>0.1639864</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>106</v>
       </c>
       <c r="D107">
-        <v>0.1975061</v>
+        <v>0.1848316</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>107</v>
       </c>
       <c r="D108">
-        <v>0.1975061</v>
+        <v>0.1848316</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>108</v>
       </c>
       <c r="D109">
-        <v>0.1975061</v>
+        <v>0.1848316</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>109</v>
       </c>
       <c r="D110">
-        <v>0.1975061</v>
+        <v>0.1848316</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="D111">
-        <v>0.1975061</v>
+        <v>0.1848316</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>111</v>
       </c>
       <c r="D112">
-        <v>0.1975061</v>
+        <v>0.1848316</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>112</v>
       </c>
       <c r="D113">
-        <v>0.1975061</v>
+        <v>0.1848316</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1988,7 +1988,7 @@
         <v>113</v>
       </c>
       <c r="D114">
-        <v>0.2233712</v>
+        <v>0.2071433</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>114</v>
       </c>
       <c r="D115">
-        <v>0.2233712</v>
+        <v>0.2071433</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2016,7 +2016,7 @@
         <v>115</v>
       </c>
       <c r="D116">
-        <v>0.2233712</v>
+        <v>0.2071433</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2030,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="D117">
-        <v>0.2233712</v>
+        <v>0.2071433</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2044,7 +2044,7 @@
         <v>117</v>
       </c>
       <c r="D118">
-        <v>0.2233712</v>
+        <v>0.2071433</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="D119">
-        <v>0.2233712</v>
+        <v>0.2071433</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2072,7 +2072,7 @@
         <v>119</v>
       </c>
       <c r="D120">
-        <v>0.2233712</v>
+        <v>0.2071433</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2086,7 +2086,7 @@
         <v>120</v>
       </c>
       <c r="D121">
-        <v>0.2503059</v>
+        <v>0.2305529</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2100,7 +2100,7 @@
         <v>121</v>
       </c>
       <c r="D122">
-        <v>0.2503059</v>
+        <v>0.2305529</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="D123">
-        <v>0.2503059</v>
+        <v>0.2305529</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>123</v>
       </c>
       <c r="D124">
-        <v>0.2503059</v>
+        <v>0.2305529</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>124</v>
       </c>
       <c r="D125">
-        <v>0.2503059</v>
+        <v>0.2305529</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>125</v>
       </c>
       <c r="D126">
-        <v>0.2503059</v>
+        <v>0.2305529</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>126</v>
       </c>
       <c r="D127">
-        <v>0.2503059</v>
+        <v>0.2305529</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>127</v>
       </c>
       <c r="D128">
-        <v>0.2779184</v>
+        <v>0.2546981</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2198,7 +2198,7 @@
         <v>128</v>
       </c>
       <c r="D129">
-        <v>0.2779184</v>
+        <v>0.2546981</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2212,7 +2212,7 @@
         <v>129</v>
       </c>
       <c r="D130">
-        <v>0.2779184</v>
+        <v>0.2546981</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>130</v>
       </c>
       <c r="D131">
-        <v>0.2779184</v>
+        <v>0.2546981</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2240,7 +2240,7 @@
         <v>131</v>
       </c>
       <c r="D132">
-        <v>0.2779184</v>
+        <v>0.2546981</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>132</v>
       </c>
       <c r="D133">
-        <v>0.2779184</v>
+        <v>0.2546981</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2268,7 +2268,7 @@
         <v>133</v>
       </c>
       <c r="D134">
-        <v>0.2779184</v>
+        <v>0.2546981</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>134</v>
       </c>
       <c r="D135">
-        <v>0.3058201</v>
+        <v>0.2792234</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>135</v>
       </c>
       <c r="D136">
-        <v>0.3058201</v>
+        <v>0.2792234</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2310,7 +2310,7 @@
         <v>136</v>
       </c>
       <c r="D137">
-        <v>0.3058201</v>
+        <v>0.2792234</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2324,7 +2324,7 @@
         <v>137</v>
       </c>
       <c r="D138">
-        <v>0.3058201</v>
+        <v>0.2792234</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>138</v>
       </c>
       <c r="D139">
-        <v>0.3058201</v>
+        <v>0.2792234</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>139</v>
       </c>
       <c r="D140">
-        <v>0.3058201</v>
+        <v>0.2792234</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2366,7 +2366,7 @@
         <v>140</v>
       </c>
       <c r="D141">
-        <v>0.3058201</v>
+        <v>0.2792234</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2380,7 +2380,7 @@
         <v>141</v>
       </c>
       <c r="D142">
-        <v>0.3336259</v>
+        <v>0.3037798</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>142</v>
       </c>
       <c r="D143">
-        <v>0.3336259</v>
+        <v>0.3037798</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2408,7 +2408,7 @@
         <v>143</v>
       </c>
       <c r="D144">
-        <v>0.3336259</v>
+        <v>0.3037798</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2422,7 +2422,7 @@
         <v>144</v>
       </c>
       <c r="D145">
-        <v>0.3336259</v>
+        <v>0.3037798</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2436,7 +2436,7 @@
         <v>145</v>
       </c>
       <c r="D146">
-        <v>0.3336259</v>
+        <v>0.3037798</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>146</v>
       </c>
       <c r="D147">
-        <v>0.3336259</v>
+        <v>0.3037798</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>147</v>
       </c>
       <c r="D148">
-        <v>0.3336259</v>
+        <v>0.3037798</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2478,7 +2478,7 @@
         <v>148</v>
       </c>
       <c r="D149">
-        <v>0.3609536</v>
+        <v>0.3280248</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2492,7 +2492,7 @@
         <v>149</v>
       </c>
       <c r="D150">
-        <v>0.3609536</v>
+        <v>0.3280248</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>150</v>
       </c>
       <c r="D151">
-        <v>0.3609536</v>
+        <v>0.3280248</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2520,7 +2520,7 @@
         <v>151</v>
       </c>
       <c r="D152">
-        <v>0.3609536</v>
+        <v>0.3280248</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>152</v>
       </c>
       <c r="D153">
-        <v>0.3609536</v>
+        <v>0.3280248</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>153</v>
       </c>
       <c r="D154">
-        <v>0.3609536</v>
+        <v>0.3280248</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2562,7 +2562,7 @@
         <v>154</v>
       </c>
       <c r="D155">
-        <v>0.3609536</v>
+        <v>0.3280248</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2576,7 +2576,7 @@
         <v>155</v>
       </c>
       <c r="D156">
-        <v>0.3874246</v>
+        <v>0.3516224</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>156</v>
       </c>
       <c r="D157">
-        <v>0.3874246</v>
+        <v>0.3516224</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>157</v>
       </c>
       <c r="D158">
-        <v>0.3874246</v>
+        <v>0.3516224</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>158</v>
       </c>
       <c r="D159">
-        <v>0.3874246</v>
+        <v>0.3516224</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2632,7 +2632,7 @@
         <v>159</v>
       </c>
       <c r="D160">
-        <v>0.3874246</v>
+        <v>0.3516224</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>160</v>
       </c>
       <c r="D161">
-        <v>0.3874246</v>
+        <v>0.3516224</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2660,7 +2660,7 @@
         <v>161</v>
       </c>
       <c r="D162">
-        <v>0.3874246</v>
+        <v>0.3516224</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>162</v>
       </c>
       <c r="D163">
-        <v>0.4126632</v>
+        <v>0.3742434</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>163</v>
       </c>
       <c r="D164">
-        <v>0.4126632</v>
+        <v>0.3742434</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2702,7 +2702,7 @@
         <v>164</v>
       </c>
       <c r="D165">
-        <v>0.4126632</v>
+        <v>0.3742434</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>165</v>
       </c>
       <c r="D166">
-        <v>0.4126632</v>
+        <v>0.3742434</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2730,7 +2730,7 @@
         <v>166</v>
       </c>
       <c r="D167">
-        <v>0.4126632</v>
+        <v>0.3742434</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2744,7 +2744,7 @@
         <v>167</v>
       </c>
       <c r="D168">
-        <v>0.4126632</v>
+        <v>0.3742434</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2758,7 +2758,7 @@
         <v>168</v>
       </c>
       <c r="D169">
-        <v>0.4126632</v>
+        <v>0.3742434</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2772,7 +2772,7 @@
         <v>169</v>
       </c>
       <c r="D170">
-        <v>0.4362971</v>
+        <v>0.3955649</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2786,7 +2786,7 @@
         <v>170</v>
       </c>
       <c r="D171">
-        <v>0.4362971</v>
+        <v>0.3955649</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2800,7 +2800,7 @@
         <v>171</v>
       </c>
       <c r="D172">
-        <v>0.4362971</v>
+        <v>0.3955649</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2814,7 +2814,7 @@
         <v>172</v>
       </c>
       <c r="D173">
-        <v>0.4362971</v>
+        <v>0.3955649</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>173</v>
       </c>
       <c r="D174">
-        <v>0.4362971</v>
+        <v>0.3955649</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>174</v>
       </c>
       <c r="D175">
-        <v>0.4362971</v>
+        <v>0.3955649</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>175</v>
       </c>
       <c r="D176">
-        <v>0.4362971</v>
+        <v>0.3955649</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2870,7 +2870,7 @@
         <v>176</v>
       </c>
       <c r="D177">
-        <v>0.4579573</v>
+        <v>0.4152706</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2884,7 +2884,7 @@
         <v>177</v>
       </c>
       <c r="D178">
-        <v>0.4579573</v>
+        <v>0.4152706</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>178</v>
       </c>
       <c r="D179">
-        <v>0.4579573</v>
+        <v>0.4152706</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2912,7 +2912,7 @@
         <v>179</v>
       </c>
       <c r="D180">
-        <v>0.4579573</v>
+        <v>0.4152706</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>180</v>
       </c>
       <c r="D181">
-        <v>0.4579573</v>
+        <v>0.4152706</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2940,7 +2940,7 @@
         <v>181</v>
       </c>
       <c r="D182">
-        <v>0.4579573</v>
+        <v>0.4152706</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>182</v>
       </c>
       <c r="D183">
-        <v>0.4579573</v>
+        <v>0.4152706</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2968,7 +2968,7 @@
         <v>183</v>
       </c>
       <c r="D184">
-        <v>0.4772779</v>
+        <v>0.433051</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2982,7 +2982,7 @@
         <v>184</v>
       </c>
       <c r="D185">
-        <v>0.4772779</v>
+        <v>0.433051</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2996,7 +2996,7 @@
         <v>185</v>
       </c>
       <c r="D186">
-        <v>0.4772779</v>
+        <v>0.433051</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>186</v>
       </c>
       <c r="D187">
-        <v>0.4772779</v>
+        <v>0.433051</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3024,7 +3024,7 @@
         <v>187</v>
       </c>
       <c r="D188">
-        <v>0.4772779</v>
+        <v>0.433051</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3038,7 +3038,7 @@
         <v>188</v>
       </c>
       <c r="D189">
-        <v>0.4772779</v>
+        <v>0.433051</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3052,7 +3052,7 @@
         <v>189</v>
       </c>
       <c r="D190">
-        <v>0.4772779</v>
+        <v>0.433051</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3066,7 +3066,7 @@
         <v>190</v>
       </c>
       <c r="D191">
-        <v>0.4938963</v>
+        <v>0.4486028</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3080,7 +3080,7 @@
         <v>191</v>
       </c>
       <c r="D192">
-        <v>0.4938963</v>
+        <v>0.4486028</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3094,7 +3094,7 @@
         <v>192</v>
       </c>
       <c r="D193">
-        <v>0.4938963</v>
+        <v>0.4486028</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3108,7 +3108,7 @@
         <v>193</v>
       </c>
       <c r="D194">
-        <v>0.4938963</v>
+        <v>0.4486028</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3122,7 +3122,7 @@
         <v>194</v>
       </c>
       <c r="D195">
-        <v>0.4938963</v>
+        <v>0.4486028</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>195</v>
       </c>
       <c r="D196">
-        <v>0.4938963</v>
+        <v>0.4486028</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3150,7 +3150,7 @@
         <v>196</v>
       </c>
       <c r="D197">
-        <v>0.4938963</v>
+        <v>0.4486028</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3164,7 +3164,7 @@
         <v>197</v>
       </c>
       <c r="D198">
-        <v>0.5074532</v>
+        <v>0.4616296</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3178,7 +3178,7 @@
         <v>198</v>
       </c>
       <c r="D199">
-        <v>0.5074532</v>
+        <v>0.4616296</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3192,7 +3192,7 @@
         <v>199</v>
       </c>
       <c r="D200">
-        <v>0.5074532</v>
+        <v>0.4616296</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3206,7 +3206,7 @@
         <v>200</v>
       </c>
       <c r="D201">
-        <v>0.5074532</v>
+        <v>0.4616296</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3220,7 +3220,7 @@
         <v>201</v>
       </c>
       <c r="D202">
-        <v>0.5074532</v>
+        <v>0.4616296</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3234,7 +3234,7 @@
         <v>202</v>
       </c>
       <c r="D203">
-        <v>0.5074532</v>
+        <v>0.4616296</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3248,7 +3248,7 @@
         <v>203</v>
       </c>
       <c r="D204">
-        <v>0.5074532</v>
+        <v>0.4616296</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3262,7 +3262,7 @@
         <v>204</v>
       </c>
       <c r="D205">
-        <v>0.5175924</v>
+        <v>0.4718412</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>205</v>
       </c>
       <c r="D206">
-        <v>0.5175924</v>
+        <v>0.4718412</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>206</v>
       </c>
       <c r="D207">
-        <v>0.5175924</v>
+        <v>0.4718412</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>207</v>
       </c>
       <c r="D208">
-        <v>0.5175924</v>
+        <v>0.4718412</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3318,7 +3318,7 @@
         <v>208</v>
       </c>
       <c r="D209">
-        <v>0.5175924</v>
+        <v>0.4718412</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3332,7 +3332,7 @@
         <v>209</v>
       </c>
       <c r="D210">
-        <v>0.5175924</v>
+        <v>0.4718412</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>210</v>
       </c>
       <c r="D211">
-        <v>0.5175924</v>
+        <v>0.4718412</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>211</v>
       </c>
       <c r="D212">
-        <v>0.5239612</v>
+        <v>0.4789542</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>212</v>
       </c>
       <c r="D213">
-        <v>0.5239612</v>
+        <v>0.4789542</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>213</v>
       </c>
       <c r="D214">
-        <v>0.5239612</v>
+        <v>0.4789542</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>214</v>
       </c>
       <c r="D215">
-        <v>0.5239612</v>
+        <v>0.4789542</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3416,7 +3416,7 @@
         <v>215</v>
       </c>
       <c r="D216">
-        <v>0.5239612</v>
+        <v>0.4789542</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3430,7 +3430,7 @@
         <v>216</v>
       </c>
       <c r="D217">
-        <v>0.5239612</v>
+        <v>0.4789542</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>217</v>
       </c>
       <c r="D218">
-        <v>0.5239612</v>
+        <v>0.4789542</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>218</v>
       </c>
       <c r="D219">
-        <v>0.5262097</v>
+        <v>0.4826918</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>219</v>
       </c>
       <c r="D220">
-        <v>0.5262097</v>
+        <v>0.4826918</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>220</v>
       </c>
       <c r="D221">
-        <v>0.5262097</v>
+        <v>0.4826918</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3500,7 +3500,7 @@
         <v>221</v>
       </c>
       <c r="D222">
-        <v>0.5262097</v>
+        <v>0.4826918</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>222</v>
       </c>
       <c r="D223">
-        <v>0.5262097</v>
+        <v>0.4826918</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>223</v>
       </c>
       <c r="D224">
-        <v>0.5262097</v>
+        <v>0.4826918</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3542,7 +3542,7 @@
         <v>224</v>
       </c>
       <c r="D225">
-        <v>0.5262097</v>
+        <v>0.4826918</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3556,7 +3556,7 @@
         <v>225</v>
       </c>
       <c r="D226">
-        <v>0.5239916999999999</v>
+        <v>0.4827836</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3570,7 +3570,7 @@
         <v>226</v>
       </c>
       <c r="D227">
-        <v>0.5239916999999999</v>
+        <v>0.4827836</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>227</v>
       </c>
       <c r="D228">
-        <v>0.5239916999999999</v>
+        <v>0.4827836</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>228</v>
       </c>
       <c r="D229">
-        <v>0.5239916999999999</v>
+        <v>0.4827836</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>229</v>
       </c>
       <c r="D230">
-        <v>0.5239916999999999</v>
+        <v>0.4827836</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3626,7 +3626,7 @@
         <v>230</v>
       </c>
       <c r="D231">
-        <v>0.5239916999999999</v>
+        <v>0.4827836</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3640,7 +3640,7 @@
         <v>231</v>
       </c>
       <c r="D232">
-        <v>0.5239916999999999</v>
+        <v>0.4827836</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3654,7 +3654,7 @@
         <v>232</v>
       </c>
       <c r="D233">
-        <v>0.5169639</v>
+        <v>0.4789658</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>233</v>
       </c>
       <c r="D234">
-        <v>0.5169639</v>
+        <v>0.4789658</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>234</v>
       </c>
       <c r="D235">
-        <v>0.5169639</v>
+        <v>0.4789658</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>235</v>
       </c>
       <c r="D236">
-        <v>0.5169639</v>
+        <v>0.4789658</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3710,7 +3710,7 @@
         <v>236</v>
       </c>
       <c r="D237">
-        <v>0.5169639</v>
+        <v>0.4789658</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3724,7 +3724,7 @@
         <v>237</v>
       </c>
       <c r="D238">
-        <v>0.5169639</v>
+        <v>0.4789658</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>238</v>
       </c>
       <c r="D239">
-        <v>0.5169639</v>
+        <v>0.4789658</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>239</v>
       </c>
       <c r="D240">
-        <v>0.5047865</v>
+        <v>0.4709812</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3766,7 +3766,7 @@
         <v>240</v>
       </c>
       <c r="D241">
-        <v>0.5047865</v>
+        <v>0.4709812</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3780,7 +3780,7 @@
         <v>241</v>
       </c>
       <c r="D242">
-        <v>0.5047865</v>
+        <v>0.4709812</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>242</v>
       </c>
       <c r="D243">
-        <v>0.5047865</v>
+        <v>0.4709812</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3808,7 +3808,7 @@
         <v>243</v>
       </c>
       <c r="D244">
-        <v>0.5047865</v>
+        <v>0.4709812</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>244</v>
       </c>
       <c r="D245">
-        <v>0.5047865</v>
+        <v>0.4709812</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3836,7 +3836,7 @@
         <v>245</v>
       </c>
       <c r="D246">
-        <v>0.5047865</v>
+        <v>0.4709812</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>246</v>
       </c>
       <c r="D247">
-        <v>0.4871227</v>
+        <v>0.4585792</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3864,7 +3864,7 @@
         <v>247</v>
       </c>
       <c r="D248">
-        <v>0.4871227</v>
+        <v>0.4585792</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>248</v>
       </c>
       <c r="D249">
-        <v>0.4871227</v>
+        <v>0.4585792</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3892,7 +3892,7 @@
         <v>249</v>
       </c>
       <c r="D250">
-        <v>0.4871227</v>
+        <v>0.4585792</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3906,7 +3906,7 @@
         <v>250</v>
       </c>
       <c r="D251">
-        <v>0.4871227</v>
+        <v>0.4585792</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>251</v>
       </c>
       <c r="D252">
-        <v>0.4871227</v>
+        <v>0.4585792</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>252</v>
       </c>
       <c r="D253">
-        <v>0.4871227</v>
+        <v>0.4585792</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>253</v>
       </c>
       <c r="D254">
-        <v>0.4636391</v>
+        <v>0.4415156</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>254</v>
       </c>
       <c r="D255">
-        <v>0.4636391</v>
+        <v>0.4415156</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>255</v>
       </c>
       <c r="D256">
-        <v>0.4636391</v>
+        <v>0.4415156</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3990,7 +3990,7 @@
         <v>256</v>
       </c>
       <c r="D257">
-        <v>0.4636391</v>
+        <v>0.4415156</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4004,7 +4004,7 @@
         <v>257</v>
       </c>
       <c r="D258">
-        <v>0.4636391</v>
+        <v>0.4415156</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>258</v>
       </c>
       <c r="D259">
-        <v>0.4636391</v>
+        <v>0.4415156</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>259</v>
       </c>
       <c r="D260">
-        <v>0.4636391</v>
+        <v>0.4415156</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>260</v>
       </c>
       <c r="D261">
-        <v>0.4340055</v>
+        <v>0.4195529</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>261</v>
       </c>
       <c r="D262">
-        <v>0.4340055</v>
+        <v>0.4195529</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>262</v>
       </c>
       <c r="D263">
-        <v>0.4340055</v>
+        <v>0.4195529</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4088,7 +4088,7 @@
         <v>263</v>
       </c>
       <c r="D264">
-        <v>0.4340055</v>
+        <v>0.4195529</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>264</v>
       </c>
       <c r="D265">
-        <v>0.4340055</v>
+        <v>0.4195529</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>265</v>
       </c>
       <c r="D266">
-        <v>0.4340055</v>
+        <v>0.4195529</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>266</v>
       </c>
       <c r="D267">
-        <v>0.4340055</v>
+        <v>0.4195529</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>267</v>
       </c>
       <c r="D268">
-        <v>0.3978949</v>
+        <v>0.3924601</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>268</v>
       </c>
       <c r="D269">
-        <v>0.3978949</v>
+        <v>0.3924601</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>269</v>
       </c>
       <c r="D270">
-        <v>0.3978949</v>
+        <v>0.3924601</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>270</v>
       </c>
       <c r="D271">
-        <v>0.3978949</v>
+        <v>0.3924601</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4200,7 +4200,7 @@
         <v>271</v>
       </c>
       <c r="D272">
-        <v>0.3978949</v>
+        <v>0.3924601</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4214,7 +4214,7 @@
         <v>272</v>
       </c>
       <c r="D273">
-        <v>0.3978949</v>
+        <v>0.3924601</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4228,7 +4228,7 @@
         <v>273</v>
       </c>
       <c r="D274">
-        <v>0.3978949</v>
+        <v>0.3924601</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>274</v>
       </c>
       <c r="D275">
-        <v>0.3549836</v>
+        <v>0.3600127</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>275</v>
       </c>
       <c r="D276">
-        <v>0.3549836</v>
+        <v>0.3600127</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4270,7 +4270,7 @@
         <v>276</v>
       </c>
       <c r="D277">
-        <v>0.3549836</v>
+        <v>0.3600127</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4284,7 +4284,7 @@
         <v>277</v>
       </c>
       <c r="D278">
-        <v>0.3549836</v>
+        <v>0.3600127</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4298,7 +4298,7 @@
         <v>278</v>
       </c>
       <c r="D279">
-        <v>0.3549836</v>
+        <v>0.3600127</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>279</v>
       </c>
       <c r="D280">
-        <v>0.3549836</v>
+        <v>0.3600127</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4326,7 +4326,7 @@
         <v>280</v>
       </c>
       <c r="D281">
-        <v>0.3549836</v>
+        <v>0.3600127</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>281</v>
       </c>
       <c r="D282">
-        <v>0.3049511</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4354,7 +4354,7 @@
         <v>282</v>
       </c>
       <c r="D283">
-        <v>0.3049511</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>283</v>
       </c>
       <c r="D284">
-        <v>0.3049511</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4382,7 +4382,7 @@
         <v>284</v>
       </c>
       <c r="D285">
-        <v>0.3049511</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>285</v>
       </c>
       <c r="D286">
-        <v>0.3049511</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>286</v>
       </c>
       <c r="D287">
-        <v>0.3049511</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4424,7 +4424,7 @@
         <v>287</v>
       </c>
       <c r="D288">
-        <v>0.3049511</v>
+        <v>0.321993</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4438,7 +4438,7 @@
         <v>288</v>
       </c>
       <c r="D289">
-        <v>0.2474801</v>
+        <v>0.2781895</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4452,7 +4452,7 @@
         <v>289</v>
       </c>
       <c r="D290">
-        <v>0.2474801</v>
+        <v>0.2781895</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4466,7 +4466,7 @@
         <v>290</v>
       </c>
       <c r="D291">
-        <v>0.2474801</v>
+        <v>0.2781895</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4480,7 +4480,7 @@
         <v>291</v>
       </c>
       <c r="D292">
-        <v>0.2474801</v>
+        <v>0.2781895</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4494,7 +4494,7 @@
         <v>292</v>
       </c>
       <c r="D293">
-        <v>0.2474801</v>
+        <v>0.2781895</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4508,7 +4508,7 @@
         <v>293</v>
       </c>
       <c r="D294">
-        <v>0.2474801</v>
+        <v>0.2781895</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4522,7 +4522,7 @@
         <v>294</v>
       </c>
       <c r="D295">
-        <v>0.2474801</v>
+        <v>0.2781895</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4536,7 +4536,7 @@
         <v>295</v>
       </c>
       <c r="D296">
-        <v>0.1822566</v>
+        <v>0.2283975</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4550,7 +4550,7 @@
         <v>296</v>
       </c>
       <c r="D297">
-        <v>0.1822566</v>
+        <v>0.2283975</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4564,7 +4564,7 @@
         <v>297</v>
       </c>
       <c r="D298">
-        <v>0.1822566</v>
+        <v>0.2283975</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4578,7 +4578,7 @@
         <v>298</v>
       </c>
       <c r="D299">
-        <v>0.1822566</v>
+        <v>0.2283975</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4592,7 +4592,7 @@
         <v>299</v>
       </c>
       <c r="D300">
-        <v>0.1822566</v>
+        <v>0.2283975</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4606,7 +4606,7 @@
         <v>300</v>
       </c>
       <c r="D301">
-        <v>0.1822566</v>
+        <v>0.2283975</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>301</v>
       </c>
       <c r="D302">
-        <v>0.1822566</v>
+        <v>0.2283975</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4634,7 +4634,7 @@
         <v>302</v>
       </c>
       <c r="D303">
-        <v>0.1089699</v>
+        <v>0.1724188</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4648,7 +4648,7 @@
         <v>303</v>
       </c>
       <c r="D304">
-        <v>0.1089699</v>
+        <v>0.1724188</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4662,7 +4662,7 @@
         <v>304</v>
       </c>
       <c r="D305">
-        <v>0.1089699</v>
+        <v>0.1724188</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>305</v>
       </c>
       <c r="D306">
-        <v>0.1089699</v>
+        <v>0.1724188</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4690,7 +4690,7 @@
         <v>306</v>
       </c>
       <c r="D307">
-        <v>0.1089699</v>
+        <v>0.1724188</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4704,7 +4704,7 @@
         <v>307</v>
       </c>
       <c r="D308">
-        <v>0.1089699</v>
+        <v>0.1724188</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4718,7 +4718,7 @@
         <v>308</v>
       </c>
       <c r="D309">
-        <v>0.1089699</v>
+        <v>0.1724188</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4732,7 +4732,7 @@
         <v>309</v>
       </c>
       <c r="D310">
-        <v>0.0291297</v>
+        <v>0.1100618</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>310</v>
       </c>
       <c r="D311">
-        <v>0.0291297</v>
+        <v>0.1100618</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>311</v>
       </c>
       <c r="D312">
-        <v>0.0291297</v>
+        <v>0.1100618</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>312</v>
       </c>
       <c r="D313">
-        <v>0.0291297</v>
+        <v>0.1100618</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>313</v>
       </c>
       <c r="D314">
-        <v>0.0291297</v>
+        <v>0.1100618</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>314</v>
       </c>
       <c r="D315">
-        <v>0.0291297</v>
+        <v>0.1100618</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>315</v>
       </c>
       <c r="D316">
-        <v>0.0291297</v>
+        <v>0.1100618</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>316</v>
       </c>
       <c r="D317">
-        <v>0.0027591</v>
+        <v>0.0411413</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>317</v>
       </c>
       <c r="D318">
-        <v>0.0027591</v>
+        <v>0.0411413</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>318</v>
       </c>
       <c r="D319">
-        <v>0.0027591</v>
+        <v>0.0411413</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>319</v>
       </c>
       <c r="D320">
-        <v>0.0027591</v>
+        <v>0.0411413</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>320</v>
       </c>
       <c r="D321">
-        <v>0.0027591</v>
+        <v>0.0411413</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>321</v>
       </c>
       <c r="D322">
-        <v>0.0027591</v>
+        <v>0.0411413</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>322</v>
       </c>
       <c r="D323">
-        <v>0.0027591</v>
+        <v>0.0411413</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>323</v>
       </c>
       <c r="D324">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>324</v>
       </c>
       <c r="D325">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>325</v>
       </c>
       <c r="D326">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>326</v>
       </c>
       <c r="D327">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>327</v>
       </c>
       <c r="D328">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>328</v>
       </c>
       <c r="D329">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>329</v>
       </c>
       <c r="D330">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>330</v>
       </c>
       <c r="D331">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>331</v>
       </c>
       <c r="D332">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>332</v>
       </c>
       <c r="D333">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>333</v>
       </c>
       <c r="D334">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>334</v>
       </c>
       <c r="D335">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>335</v>
       </c>
       <c r="D336">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>336</v>
       </c>
       <c r="D337">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5124,7 +5124,7 @@
         <v>337</v>
       </c>
       <c r="D338">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5138,7 +5138,7 @@
         <v>338</v>
       </c>
       <c r="D339">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5152,7 +5152,7 @@
         <v>339</v>
       </c>
       <c r="D340">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5166,7 +5166,7 @@
         <v>340</v>
       </c>
       <c r="D341">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5180,7 +5180,7 @@
         <v>341</v>
       </c>
       <c r="D342">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5194,7 +5194,7 @@
         <v>342</v>
       </c>
       <c r="D343">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5208,7 +5208,7 @@
         <v>343</v>
       </c>
       <c r="D344">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5222,7 +5222,7 @@
         <v>344</v>
       </c>
       <c r="D345">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5236,7 +5236,7 @@
         <v>345</v>
       </c>
       <c r="D346">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5250,7 +5250,7 @@
         <v>346</v>
       </c>
       <c r="D347">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5264,7 +5264,7 @@
         <v>347</v>
       </c>
       <c r="D348">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5278,7 +5278,7 @@
         <v>348</v>
       </c>
       <c r="D349">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5292,7 +5292,7 @@
         <v>349</v>
       </c>
       <c r="D350">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5306,7 +5306,7 @@
         <v>350</v>
       </c>
       <c r="D351">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>351</v>
       </c>
       <c r="D352">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5334,7 +5334,7 @@
         <v>352</v>
       </c>
       <c r="D353">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5348,7 +5348,7 @@
         <v>353</v>
       </c>
       <c r="D354">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>354</v>
       </c>
       <c r="D355">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5376,7 +5376,7 @@
         <v>355</v>
       </c>
       <c r="D356">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5390,7 +5390,7 @@
         <v>356</v>
       </c>
       <c r="D357">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5404,7 +5404,7 @@
         <v>357</v>
       </c>
       <c r="D358">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5418,7 +5418,7 @@
         <v>358</v>
       </c>
       <c r="D359">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5432,7 +5432,7 @@
         <v>359</v>
       </c>
       <c r="D360">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5446,7 +5446,7 @@
         <v>360</v>
       </c>
       <c r="D361">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5460,7 +5460,7 @@
         <v>361</v>
       </c>
       <c r="D362">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5474,7 +5474,7 @@
         <v>362</v>
       </c>
       <c r="D363">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5488,7 +5488,7 @@
         <v>363</v>
       </c>
       <c r="D364">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5502,7 +5502,7 @@
         <v>364</v>
       </c>
       <c r="D365">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5516,7 +5516,7 @@
         <v>365</v>
       </c>
       <c r="D366">
-        <v>0.0027591</v>
+        <v>0.0098286</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.09059</v>
+        <v>0.1093562</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.09059</v>
+        <v>0.1093562</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.09059</v>
+        <v>0.1093562</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.09059</v>
+        <v>0.1093562</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.09059</v>
+        <v>0.1093562</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0.09059</v>
+        <v>0.1093562</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0.09059</v>
+        <v>0.1093562</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.09059</v>
+        <v>0.1099383</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0.09059</v>
+        <v>0.1099383</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.09059</v>
+        <v>0.1099383</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.09059</v>
+        <v>0.1099383</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0.09059</v>
+        <v>0.1099383</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0.09059</v>
+        <v>0.1099383</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0.09059</v>
+        <v>0.1099383</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0.09059</v>
+        <v>0.1105753</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0.09059</v>
+        <v>0.1105753</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0.09059</v>
+        <v>0.1105753</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0.09059</v>
+        <v>0.1105753</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0.09059</v>
+        <v>0.1105753</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.09059</v>
+        <v>0.1105753</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -700,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0.09059</v>
+        <v>0.1105753</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0.09059</v>
+        <v>0.1111836</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0.09059</v>
+        <v>0.1111836</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0.09059</v>
+        <v>0.1111836</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0.09059</v>
+        <v>0.1111836</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0.09059</v>
+        <v>0.1111836</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -784,7 +784,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0.09059</v>
+        <v>0.1111836</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -798,7 +798,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0.09059</v>
+        <v>0.1111836</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -812,7 +812,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0.09059</v>
+        <v>0.1116654</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -826,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0.09059</v>
+        <v>0.1116654</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -840,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0.09059</v>
+        <v>0.1116654</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0.09059</v>
+        <v>0.1116654</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0.09059</v>
+        <v>0.1116654</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>0.09059</v>
+        <v>0.1116654</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -896,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>0.09059</v>
+        <v>0.1116654</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>0.09059</v>
+        <v>0.1119481</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -924,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>0.09059</v>
+        <v>0.1119481</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>0.09059</v>
+        <v>0.1119481</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -952,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>0.09059</v>
+        <v>0.1119481</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -966,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>0.09059</v>
+        <v>0.1119481</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -980,7 +980,7 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>0.09059</v>
+        <v>0.1119481</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -994,7 +994,7 @@
         <v>42</v>
       </c>
       <c r="D43">
-        <v>0.09059</v>
+        <v>0.1119481</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1008,7 +1008,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>0.09059</v>
+        <v>0.1120475</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1022,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>0.09059</v>
+        <v>0.1120475</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1036,7 +1036,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>0.09059</v>
+        <v>0.1120475</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1050,7 +1050,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>0.09059</v>
+        <v>0.1120475</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1064,7 +1064,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>0.09059</v>
+        <v>0.1120475</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1078,7 +1078,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>0.09059</v>
+        <v>0.1120475</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1092,7 +1092,7 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>0.09059</v>
+        <v>0.1120475</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1106,7 +1106,7 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>0.09059</v>
+        <v>0.1121255</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1120,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>0.09059</v>
+        <v>0.1121255</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1134,7 +1134,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>0.09059</v>
+        <v>0.1121255</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1148,7 +1148,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>0.09059</v>
+        <v>0.1121255</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1162,7 +1162,7 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>0.09059</v>
+        <v>0.1121255</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1176,7 +1176,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>0.09059</v>
+        <v>0.1121255</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1190,7 +1190,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>0.09059</v>
+        <v>0.1121255</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1204,7 +1204,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>0.091186</v>
+        <v>0.1124935</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>0.091186</v>
+        <v>0.1124935</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1232,7 +1232,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>0.091186</v>
+        <v>0.1124935</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>0.091186</v>
+        <v>0.1124935</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1260,7 +1260,7 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>0.091186</v>
+        <v>0.1124935</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>62</v>
       </c>
       <c r="D63">
-        <v>0.091186</v>
+        <v>0.1124935</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1288,7 +1288,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>0.091186</v>
+        <v>0.1124935</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1302,7 +1302,7 @@
         <v>64</v>
       </c>
       <c r="D65">
-        <v>0.095122</v>
+        <v>0.1135478</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1316,7 +1316,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>0.095122</v>
+        <v>0.1135478</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1330,7 +1330,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>0.095122</v>
+        <v>0.1135478</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1344,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>0.095122</v>
+        <v>0.1135478</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1358,7 +1358,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>0.095122</v>
+        <v>0.1135478</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1372,7 +1372,7 @@
         <v>69</v>
       </c>
       <c r="D70">
-        <v>0.095122</v>
+        <v>0.1135478</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1386,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="D71">
-        <v>0.095122</v>
+        <v>0.1135478</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1400,7 +1400,7 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>0.1028745</v>
+        <v>0.1156918</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1414,7 +1414,7 @@
         <v>72</v>
       </c>
       <c r="D73">
-        <v>0.1028745</v>
+        <v>0.1156918</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1428,7 +1428,7 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <v>0.1028745</v>
+        <v>0.1156918</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1442,7 +1442,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>0.1028745</v>
+        <v>0.1156918</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1456,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>0.1028745</v>
+        <v>0.1156918</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1470,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>0.1028745</v>
+        <v>0.1156918</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="D78">
-        <v>0.1028745</v>
+        <v>0.1156918</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1498,7 +1498,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>0.1140354</v>
+        <v>0.1193118</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1512,7 +1512,7 @@
         <v>79</v>
       </c>
       <c r="D80">
-        <v>0.1140354</v>
+        <v>0.1193118</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1526,7 +1526,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>0.1140354</v>
+        <v>0.1193118</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1540,7 +1540,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>0.1140354</v>
+        <v>0.1193118</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1554,7 +1554,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>0.1140354</v>
+        <v>0.1193118</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>0.1140354</v>
+        <v>0.1193118</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1582,7 +1582,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>0.1140354</v>
+        <v>0.1193118</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1596,7 +1596,7 @@
         <v>85</v>
       </c>
       <c r="D86">
-        <v>0.1282032</v>
+        <v>0.1248228</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>0.1282032</v>
+        <v>0.1248228</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1624,7 +1624,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>0.1282032</v>
+        <v>0.1248228</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1638,7 +1638,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>0.1282032</v>
+        <v>0.1248228</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1652,7 +1652,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>0.1282032</v>
+        <v>0.1248228</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>0.1282032</v>
+        <v>0.1248228</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1680,7 +1680,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>0.1282032</v>
+        <v>0.1248228</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1694,7 +1694,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>0.144983</v>
+        <v>0.1327456</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1708,7 +1708,7 @@
         <v>93</v>
       </c>
       <c r="D94">
-        <v>0.144983</v>
+        <v>0.1327456</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>0.144983</v>
+        <v>0.1327456</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1736,7 +1736,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>0.144983</v>
+        <v>0.1327456</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1750,7 +1750,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>0.144983</v>
+        <v>0.1327456</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>0.144983</v>
+        <v>0.1327456</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>98</v>
       </c>
       <c r="D99">
-        <v>0.144983</v>
+        <v>0.1327456</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1792,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>0.1639864</v>
+        <v>0.1437692</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1806,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="D101">
-        <v>0.1639864</v>
+        <v>0.1437692</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>101</v>
       </c>
       <c r="D102">
-        <v>0.1639864</v>
+        <v>0.1437692</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>102</v>
       </c>
       <c r="D103">
-        <v>0.1639864</v>
+        <v>0.1437692</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>103</v>
       </c>
       <c r="D104">
-        <v>0.1639864</v>
+        <v>0.1437692</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1862,7 +1862,7 @@
         <v>104</v>
       </c>
       <c r="D105">
-        <v>0.1639864</v>
+        <v>0.1437692</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>105</v>
       </c>
       <c r="D106">
-        <v>0.1639864</v>
+        <v>0.1437692</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>106</v>
       </c>
       <c r="D107">
-        <v>0.1848316</v>
+        <v>0.1587521</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>107</v>
       </c>
       <c r="D108">
-        <v>0.1848316</v>
+        <v>0.1587521</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>108</v>
       </c>
       <c r="D109">
-        <v>0.1848316</v>
+        <v>0.1587521</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>109</v>
       </c>
       <c r="D110">
-        <v>0.1848316</v>
+        <v>0.1587521</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="D111">
-        <v>0.1848316</v>
+        <v>0.1587521</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>111</v>
       </c>
       <c r="D112">
-        <v>0.1848316</v>
+        <v>0.1587521</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>112</v>
       </c>
       <c r="D113">
-        <v>0.1848316</v>
+        <v>0.1587521</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1988,7 +1988,7 @@
         <v>113</v>
       </c>
       <c r="D114">
-        <v>0.2071433</v>
+        <v>0.1786048</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>114</v>
       </c>
       <c r="D115">
-        <v>0.2071433</v>
+        <v>0.1786048</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2016,7 +2016,7 @@
         <v>115</v>
       </c>
       <c r="D116">
-        <v>0.2071433</v>
+        <v>0.1786048</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2030,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="D117">
-        <v>0.2071433</v>
+        <v>0.1786048</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2044,7 +2044,7 @@
         <v>117</v>
       </c>
       <c r="D118">
-        <v>0.2071433</v>
+        <v>0.1786048</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="D119">
-        <v>0.2071433</v>
+        <v>0.1786048</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2072,7 +2072,7 @@
         <v>119</v>
       </c>
       <c r="D120">
-        <v>0.2071433</v>
+        <v>0.1786048</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2086,7 +2086,7 @@
         <v>120</v>
       </c>
       <c r="D121">
-        <v>0.2305529</v>
+        <v>0.2039923</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2100,7 +2100,7 @@
         <v>121</v>
       </c>
       <c r="D122">
-        <v>0.2305529</v>
+        <v>0.2039923</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="D123">
-        <v>0.2305529</v>
+        <v>0.2039923</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>123</v>
       </c>
       <c r="D124">
-        <v>0.2305529</v>
+        <v>0.2039923</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>124</v>
       </c>
       <c r="D125">
-        <v>0.2305529</v>
+        <v>0.2039923</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>125</v>
       </c>
       <c r="D126">
-        <v>0.2305529</v>
+        <v>0.2039923</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>126</v>
       </c>
       <c r="D127">
-        <v>0.2305529</v>
+        <v>0.2039923</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>127</v>
       </c>
       <c r="D128">
-        <v>0.2546981</v>
+        <v>0.2348632</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2198,7 +2198,7 @@
         <v>128</v>
       </c>
       <c r="D129">
-        <v>0.2546981</v>
+        <v>0.2348632</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2212,7 +2212,7 @@
         <v>129</v>
       </c>
       <c r="D130">
-        <v>0.2546981</v>
+        <v>0.2348632</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>130</v>
       </c>
       <c r="D131">
-        <v>0.2546981</v>
+        <v>0.2348632</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2240,7 +2240,7 @@
         <v>131</v>
       </c>
       <c r="D132">
-        <v>0.2546981</v>
+        <v>0.2348632</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>132</v>
       </c>
       <c r="D133">
-        <v>0.2546981</v>
+        <v>0.2348632</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2268,7 +2268,7 @@
         <v>133</v>
       </c>
       <c r="D134">
-        <v>0.2546981</v>
+        <v>0.2348632</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>134</v>
       </c>
       <c r="D135">
-        <v>0.2792234</v>
+        <v>0.2699906</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>135</v>
       </c>
       <c r="D136">
-        <v>0.2792234</v>
+        <v>0.2699906</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2310,7 +2310,7 @@
         <v>136</v>
       </c>
       <c r="D137">
-        <v>0.2792234</v>
+        <v>0.2699906</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2324,7 +2324,7 @@
         <v>137</v>
       </c>
       <c r="D138">
-        <v>0.2792234</v>
+        <v>0.2699906</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>138</v>
       </c>
       <c r="D139">
-        <v>0.2792234</v>
+        <v>0.2699906</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>139</v>
       </c>
       <c r="D140">
-        <v>0.2792234</v>
+        <v>0.2699906</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2366,7 +2366,7 @@
         <v>140</v>
       </c>
       <c r="D141">
-        <v>0.2792234</v>
+        <v>0.2699906</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2380,7 +2380,7 @@
         <v>141</v>
       </c>
       <c r="D142">
-        <v>0.3037798</v>
+        <v>0.3068962</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>142</v>
       </c>
       <c r="D143">
-        <v>0.3037798</v>
+        <v>0.3068962</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2408,7 +2408,7 @@
         <v>143</v>
       </c>
       <c r="D144">
-        <v>0.3037798</v>
+        <v>0.3068962</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2422,7 +2422,7 @@
         <v>144</v>
       </c>
       <c r="D145">
-        <v>0.3037798</v>
+        <v>0.3068962</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2436,7 +2436,7 @@
         <v>145</v>
       </c>
       <c r="D146">
-        <v>0.3037798</v>
+        <v>0.3068962</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>146</v>
       </c>
       <c r="D147">
-        <v>0.3037798</v>
+        <v>0.3068962</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>147</v>
       </c>
       <c r="D148">
-        <v>0.3037798</v>
+        <v>0.3068962</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2478,7 +2478,7 @@
         <v>148</v>
       </c>
       <c r="D149">
-        <v>0.3280248</v>
+        <v>0.3424243</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2492,7 +2492,7 @@
         <v>149</v>
       </c>
       <c r="D150">
-        <v>0.3280248</v>
+        <v>0.3424243</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>150</v>
       </c>
       <c r="D151">
-        <v>0.3280248</v>
+        <v>0.3424243</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2520,7 +2520,7 @@
         <v>151</v>
       </c>
       <c r="D152">
-        <v>0.3280248</v>
+        <v>0.3424243</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>152</v>
       </c>
       <c r="D153">
-        <v>0.3280248</v>
+        <v>0.3424243</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>153</v>
       </c>
       <c r="D154">
-        <v>0.3280248</v>
+        <v>0.3424243</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2562,7 +2562,7 @@
         <v>154</v>
       </c>
       <c r="D155">
-        <v>0.3280248</v>
+        <v>0.3424243</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2576,7 +2576,7 @@
         <v>155</v>
       </c>
       <c r="D156">
-        <v>0.3516224</v>
+        <v>0.3737478</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>156</v>
       </c>
       <c r="D157">
-        <v>0.3516224</v>
+        <v>0.3737478</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>157</v>
       </c>
       <c r="D158">
-        <v>0.3516224</v>
+        <v>0.3737478</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>158</v>
       </c>
       <c r="D159">
-        <v>0.3516224</v>
+        <v>0.3737478</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2632,7 +2632,7 @@
         <v>159</v>
       </c>
       <c r="D160">
-        <v>0.3516224</v>
+        <v>0.3737478</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>160</v>
       </c>
       <c r="D161">
-        <v>0.3516224</v>
+        <v>0.3737478</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2660,7 +2660,7 @@
         <v>161</v>
       </c>
       <c r="D162">
-        <v>0.3516224</v>
+        <v>0.3737478</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2674,7 +2674,7 @@
         <v>162</v>
       </c>
       <c r="D163">
-        <v>0.3742434</v>
+        <v>0.3991903</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2688,7 +2688,7 @@
         <v>163</v>
       </c>
       <c r="D164">
-        <v>0.3742434</v>
+        <v>0.3991903</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2702,7 +2702,7 @@
         <v>164</v>
       </c>
       <c r="D165">
-        <v>0.3742434</v>
+        <v>0.3991903</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2716,7 +2716,7 @@
         <v>165</v>
       </c>
       <c r="D166">
-        <v>0.3742434</v>
+        <v>0.3991903</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2730,7 +2730,7 @@
         <v>166</v>
       </c>
       <c r="D167">
-        <v>0.3742434</v>
+        <v>0.3991903</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2744,7 +2744,7 @@
         <v>167</v>
       </c>
       <c r="D168">
-        <v>0.3742434</v>
+        <v>0.3991903</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2758,7 +2758,7 @@
         <v>168</v>
       </c>
       <c r="D169">
-        <v>0.3742434</v>
+        <v>0.3991903</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2772,7 +2772,7 @@
         <v>169</v>
       </c>
       <c r="D170">
-        <v>0.3955649</v>
+        <v>0.4184241</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2786,7 +2786,7 @@
         <v>170</v>
       </c>
       <c r="D171">
-        <v>0.3955649</v>
+        <v>0.4184241</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2800,7 +2800,7 @@
         <v>171</v>
       </c>
       <c r="D172">
-        <v>0.3955649</v>
+        <v>0.4184241</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2814,7 +2814,7 @@
         <v>172</v>
       </c>
       <c r="D173">
-        <v>0.3955649</v>
+        <v>0.4184241</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>173</v>
       </c>
       <c r="D174">
-        <v>0.3955649</v>
+        <v>0.4184241</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2842,7 +2842,7 @@
         <v>174</v>
       </c>
       <c r="D175">
-        <v>0.3955649</v>
+        <v>0.4184241</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2856,7 +2856,7 @@
         <v>175</v>
       </c>
       <c r="D176">
-        <v>0.3955649</v>
+        <v>0.4184241</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2870,7 +2870,7 @@
         <v>176</v>
       </c>
       <c r="D177">
-        <v>0.4152706</v>
+        <v>0.432119</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2884,7 +2884,7 @@
         <v>177</v>
       </c>
       <c r="D178">
-        <v>0.4152706</v>
+        <v>0.432119</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2898,7 +2898,7 @@
         <v>178</v>
       </c>
       <c r="D179">
-        <v>0.4152706</v>
+        <v>0.432119</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2912,7 +2912,7 @@
         <v>179</v>
       </c>
       <c r="D180">
-        <v>0.4152706</v>
+        <v>0.432119</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2926,7 +2926,7 @@
         <v>180</v>
       </c>
       <c r="D181">
-        <v>0.4152706</v>
+        <v>0.432119</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2940,7 +2940,7 @@
         <v>181</v>
       </c>
       <c r="D182">
-        <v>0.4152706</v>
+        <v>0.432119</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2954,7 +2954,7 @@
         <v>182</v>
       </c>
       <c r="D183">
-        <v>0.4152706</v>
+        <v>0.432119</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2968,7 +2968,7 @@
         <v>183</v>
       </c>
       <c r="D184">
-        <v>0.433051</v>
+        <v>0.4414146</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2982,7 +2982,7 @@
         <v>184</v>
       </c>
       <c r="D185">
-        <v>0.433051</v>
+        <v>0.4414146</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2996,7 +2996,7 @@
         <v>185</v>
       </c>
       <c r="D186">
-        <v>0.433051</v>
+        <v>0.4414146</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3010,7 +3010,7 @@
         <v>186</v>
       </c>
       <c r="D187">
-        <v>0.433051</v>
+        <v>0.4414146</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3024,7 +3024,7 @@
         <v>187</v>
       </c>
       <c r="D188">
-        <v>0.433051</v>
+        <v>0.4414146</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3038,7 +3038,7 @@
         <v>188</v>
       </c>
       <c r="D189">
-        <v>0.433051</v>
+        <v>0.4414146</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3052,7 +3052,7 @@
         <v>189</v>
       </c>
       <c r="D190">
-        <v>0.433051</v>
+        <v>0.4414146</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3066,7 +3066,7 @@
         <v>190</v>
       </c>
       <c r="D191">
-        <v>0.4486028</v>
+        <v>0.4475087</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3080,7 +3080,7 @@
         <v>191</v>
       </c>
       <c r="D192">
-        <v>0.4486028</v>
+        <v>0.4475087</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3094,7 +3094,7 @@
         <v>192</v>
       </c>
       <c r="D193">
-        <v>0.4486028</v>
+        <v>0.4475087</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3108,7 +3108,7 @@
         <v>193</v>
       </c>
       <c r="D194">
-        <v>0.4486028</v>
+        <v>0.4475087</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3122,7 +3122,7 @@
         <v>194</v>
       </c>
       <c r="D195">
-        <v>0.4486028</v>
+        <v>0.4475087</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3136,7 +3136,7 @@
         <v>195</v>
       </c>
       <c r="D196">
-        <v>0.4486028</v>
+        <v>0.4475087</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3150,7 +3150,7 @@
         <v>196</v>
       </c>
       <c r="D197">
-        <v>0.4486028</v>
+        <v>0.4475087</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3164,7 +3164,7 @@
         <v>197</v>
       </c>
       <c r="D198">
-        <v>0.4616296</v>
+        <v>0.4514434</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3178,7 +3178,7 @@
         <v>198</v>
       </c>
       <c r="D199">
-        <v>0.4616296</v>
+        <v>0.4514434</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3192,7 +3192,7 @@
         <v>199</v>
       </c>
       <c r="D200">
-        <v>0.4616296</v>
+        <v>0.4514434</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3206,7 +3206,7 @@
         <v>200</v>
       </c>
       <c r="D201">
-        <v>0.4616296</v>
+        <v>0.4514434</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3220,7 +3220,7 @@
         <v>201</v>
       </c>
       <c r="D202">
-        <v>0.4616296</v>
+        <v>0.4514434</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3234,7 +3234,7 @@
         <v>202</v>
       </c>
       <c r="D203">
-        <v>0.4616296</v>
+        <v>0.4514434</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3248,7 +3248,7 @@
         <v>203</v>
       </c>
       <c r="D204">
-        <v>0.4616296</v>
+        <v>0.4514434</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3262,7 +3262,7 @@
         <v>204</v>
       </c>
       <c r="D205">
-        <v>0.4718412</v>
+        <v>0.4540282</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>205</v>
       </c>
       <c r="D206">
-        <v>0.4718412</v>
+        <v>0.4540282</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>206</v>
       </c>
       <c r="D207">
-        <v>0.4718412</v>
+        <v>0.4540282</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>207</v>
       </c>
       <c r="D208">
-        <v>0.4718412</v>
+        <v>0.4540282</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3318,7 +3318,7 @@
         <v>208</v>
       </c>
       <c r="D209">
-        <v>0.4718412</v>
+        <v>0.4540282</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3332,7 +3332,7 @@
         <v>209</v>
       </c>
       <c r="D210">
-        <v>0.4718412</v>
+        <v>0.4540282</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>210</v>
       </c>
       <c r="D211">
-        <v>0.4718412</v>
+        <v>0.4540282</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>211</v>
       </c>
       <c r="D212">
-        <v>0.4789542</v>
+        <v>0.4558202</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>212</v>
       </c>
       <c r="D213">
-        <v>0.4789542</v>
+        <v>0.4558202</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>213</v>
       </c>
       <c r="D214">
-        <v>0.4789542</v>
+        <v>0.4558202</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>214</v>
       </c>
       <c r="D215">
-        <v>0.4789542</v>
+        <v>0.4558202</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3416,7 +3416,7 @@
         <v>215</v>
       </c>
       <c r="D216">
-        <v>0.4789542</v>
+        <v>0.4558202</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3430,7 +3430,7 @@
         <v>216</v>
       </c>
       <c r="D217">
-        <v>0.4789542</v>
+        <v>0.4558202</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>217</v>
       </c>
       <c r="D218">
-        <v>0.4789542</v>
+        <v>0.4558202</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>218</v>
       </c>
       <c r="D219">
-        <v>0.4826918</v>
+        <v>0.4571062</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>219</v>
       </c>
       <c r="D220">
-        <v>0.4826918</v>
+        <v>0.4571062</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>220</v>
       </c>
       <c r="D221">
-        <v>0.4826918</v>
+        <v>0.4571062</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3500,7 +3500,7 @@
         <v>221</v>
       </c>
       <c r="D222">
-        <v>0.4826918</v>
+        <v>0.4571062</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>222</v>
       </c>
       <c r="D223">
-        <v>0.4826918</v>
+        <v>0.4571062</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>223</v>
       </c>
       <c r="D224">
-        <v>0.4826918</v>
+        <v>0.4571062</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3542,7 +3542,7 @@
         <v>224</v>
       </c>
       <c r="D225">
-        <v>0.4826918</v>
+        <v>0.4571062</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3556,7 +3556,7 @@
         <v>225</v>
       </c>
       <c r="D226">
-        <v>0.4827836</v>
+        <v>0.4578825</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3570,7 +3570,7 @@
         <v>226</v>
       </c>
       <c r="D227">
-        <v>0.4827836</v>
+        <v>0.4578825</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>227</v>
       </c>
       <c r="D228">
-        <v>0.4827836</v>
+        <v>0.4578825</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>228</v>
       </c>
       <c r="D229">
-        <v>0.4827836</v>
+        <v>0.4578825</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>229</v>
       </c>
       <c r="D230">
-        <v>0.4827836</v>
+        <v>0.4578825</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3626,7 +3626,7 @@
         <v>230</v>
       </c>
       <c r="D231">
-        <v>0.4827836</v>
+        <v>0.4578825</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3640,7 +3640,7 @@
         <v>231</v>
       </c>
       <c r="D232">
-        <v>0.4827836</v>
+        <v>0.4578825</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3654,7 +3654,7 @@
         <v>232</v>
       </c>
       <c r="D233">
-        <v>0.4789658</v>
+        <v>0.4578512</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>233</v>
       </c>
       <c r="D234">
-        <v>0.4789658</v>
+        <v>0.4578512</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>234</v>
       </c>
       <c r="D235">
-        <v>0.4789658</v>
+        <v>0.4578512</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>235</v>
       </c>
       <c r="D236">
-        <v>0.4789658</v>
+        <v>0.4578512</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3710,7 +3710,7 @@
         <v>236</v>
       </c>
       <c r="D237">
-        <v>0.4789658</v>
+        <v>0.4578512</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3724,7 +3724,7 @@
         <v>237</v>
       </c>
       <c r="D238">
-        <v>0.4789658</v>
+        <v>0.4578512</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>238</v>
       </c>
       <c r="D239">
-        <v>0.4789658</v>
+        <v>0.4578512</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>239</v>
       </c>
       <c r="D240">
-        <v>0.4709812</v>
+        <v>0.4564597</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3766,7 +3766,7 @@
         <v>240</v>
       </c>
       <c r="D241">
-        <v>0.4709812</v>
+        <v>0.4564597</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3780,7 +3780,7 @@
         <v>241</v>
       </c>
       <c r="D242">
-        <v>0.4709812</v>
+        <v>0.4564597</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>242</v>
       </c>
       <c r="D243">
-        <v>0.4709812</v>
+        <v>0.4564597</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3808,7 +3808,7 @@
         <v>243</v>
       </c>
       <c r="D244">
-        <v>0.4709812</v>
+        <v>0.4564597</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>244</v>
       </c>
       <c r="D245">
-        <v>0.4709812</v>
+        <v>0.4564597</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3836,7 +3836,7 @@
         <v>245</v>
       </c>
       <c r="D246">
-        <v>0.4709812</v>
+        <v>0.4564597</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>246</v>
       </c>
       <c r="D247">
-        <v>0.4585792</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3864,7 +3864,7 @@
         <v>247</v>
       </c>
       <c r="D248">
-        <v>0.4585792</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>248</v>
       </c>
       <c r="D249">
-        <v>0.4585792</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3892,7 +3892,7 @@
         <v>249</v>
       </c>
       <c r="D250">
-        <v>0.4585792</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3906,7 +3906,7 @@
         <v>250</v>
       </c>
       <c r="D251">
-        <v>0.4585792</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>251</v>
       </c>
       <c r="D252">
-        <v>0.4585792</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>252</v>
       </c>
       <c r="D253">
-        <v>0.4585792</v>
+        <v>0.452982</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>253</v>
       </c>
       <c r="D254">
-        <v>0.4415156</v>
+        <v>0.4465912</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>254</v>
       </c>
       <c r="D255">
-        <v>0.4415156</v>
+        <v>0.4465912</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>255</v>
       </c>
       <c r="D256">
-        <v>0.4415156</v>
+        <v>0.4465912</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3990,7 +3990,7 @@
         <v>256</v>
       </c>
       <c r="D257">
-        <v>0.4415156</v>
+        <v>0.4465912</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4004,7 +4004,7 @@
         <v>257</v>
       </c>
       <c r="D258">
-        <v>0.4415156</v>
+        <v>0.4465912</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>258</v>
       </c>
       <c r="D259">
-        <v>0.4415156</v>
+        <v>0.4465912</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>259</v>
       </c>
       <c r="D260">
-        <v>0.4415156</v>
+        <v>0.4465912</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>260</v>
       </c>
       <c r="D261">
-        <v>0.4195529</v>
+        <v>0.4363407</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>261</v>
       </c>
       <c r="D262">
-        <v>0.4195529</v>
+        <v>0.4363407</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>262</v>
       </c>
       <c r="D263">
-        <v>0.4195529</v>
+        <v>0.4363407</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4088,7 +4088,7 @@
         <v>263</v>
       </c>
       <c r="D264">
-        <v>0.4195529</v>
+        <v>0.4363407</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>264</v>
       </c>
       <c r="D265">
-        <v>0.4195529</v>
+        <v>0.4363407</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>265</v>
       </c>
       <c r="D266">
-        <v>0.4195529</v>
+        <v>0.4363407</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>266</v>
       </c>
       <c r="D267">
-        <v>0.4195529</v>
+        <v>0.4363407</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>267</v>
       </c>
       <c r="D268">
-        <v>0.3924601</v>
+        <v>0.4210124</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>268</v>
       </c>
       <c r="D269">
-        <v>0.3924601</v>
+        <v>0.4210124</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>269</v>
       </c>
       <c r="D270">
-        <v>0.3924601</v>
+        <v>0.4210124</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>270</v>
       </c>
       <c r="D271">
-        <v>0.3924601</v>
+        <v>0.4210124</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4200,7 +4200,7 @@
         <v>271</v>
       </c>
       <c r="D272">
-        <v>0.3924601</v>
+        <v>0.4210124</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4214,7 +4214,7 @@
         <v>272</v>
       </c>
       <c r="D273">
-        <v>0.3924601</v>
+        <v>0.4210124</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4228,7 +4228,7 @@
         <v>273</v>
       </c>
       <c r="D274">
-        <v>0.3924601</v>
+        <v>0.4210124</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>274</v>
       </c>
       <c r="D275">
-        <v>0.3600127</v>
+        <v>0.3989418</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>275</v>
       </c>
       <c r="D276">
-        <v>0.3600127</v>
+        <v>0.3989418</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4270,7 +4270,7 @@
         <v>276</v>
       </c>
       <c r="D277">
-        <v>0.3600127</v>
+        <v>0.3989418</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4284,7 +4284,7 @@
         <v>277</v>
       </c>
       <c r="D278">
-        <v>0.3600127</v>
+        <v>0.3989418</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4298,7 +4298,7 @@
         <v>278</v>
       </c>
       <c r="D279">
-        <v>0.3600127</v>
+        <v>0.3989418</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>279</v>
       </c>
       <c r="D280">
-        <v>0.3600127</v>
+        <v>0.3989418</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4326,7 +4326,7 @@
         <v>280</v>
       </c>
       <c r="D281">
-        <v>0.3600127</v>
+        <v>0.3989418</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>281</v>
       </c>
       <c r="D282">
-        <v>0.321993</v>
+        <v>0.368237</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4354,7 +4354,7 @@
         <v>282</v>
       </c>
       <c r="D283">
-        <v>0.321993</v>
+        <v>0.368237</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>283</v>
       </c>
       <c r="D284">
-        <v>0.321993</v>
+        <v>0.368237</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4382,7 +4382,7 @@
         <v>284</v>
       </c>
       <c r="D285">
-        <v>0.321993</v>
+        <v>0.368237</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>285</v>
       </c>
       <c r="D286">
-        <v>0.321993</v>
+        <v>0.368237</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>286</v>
       </c>
       <c r="D287">
-        <v>0.321993</v>
+        <v>0.368237</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4424,7 +4424,7 @@
         <v>287</v>
       </c>
       <c r="D288">
-        <v>0.321993</v>
+        <v>0.368237</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4438,7 +4438,7 @@
         <v>288</v>
       </c>
       <c r="D289">
-        <v>0.2781895</v>
+        <v>0.3280665</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4452,7 +4452,7 @@
         <v>289</v>
       </c>
       <c r="D290">
-        <v>0.2781895</v>
+        <v>0.3280665</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4466,7 +4466,7 @@
         <v>290</v>
       </c>
       <c r="D291">
-        <v>0.2781895</v>
+        <v>0.3280665</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4480,7 +4480,7 @@
         <v>291</v>
       </c>
       <c r="D292">
-        <v>0.2781895</v>
+        <v>0.3280665</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4494,7 +4494,7 @@
         <v>292</v>
       </c>
       <c r="D293">
-        <v>0.2781895</v>
+        <v>0.3280665</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4508,7 +4508,7 @@
         <v>293</v>
       </c>
       <c r="D294">
-        <v>0.2781895</v>
+        <v>0.3280665</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4522,7 +4522,7 @@
         <v>294</v>
       </c>
       <c r="D295">
-        <v>0.2781895</v>
+        <v>0.3280665</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4536,7 +4536,7 @@
         <v>295</v>
       </c>
       <c r="D296">
-        <v>0.2283975</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4550,7 +4550,7 @@
         <v>296</v>
       </c>
       <c r="D297">
-        <v>0.2283975</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4564,7 +4564,7 @@
         <v>297</v>
       </c>
       <c r="D298">
-        <v>0.2283975</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4578,7 +4578,7 @@
         <v>298</v>
       </c>
       <c r="D299">
-        <v>0.2283975</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4592,7 +4592,7 @@
         <v>299</v>
       </c>
       <c r="D300">
-        <v>0.2283975</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4606,7 +4606,7 @@
         <v>300</v>
       </c>
       <c r="D301">
-        <v>0.2283975</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>301</v>
       </c>
       <c r="D302">
-        <v>0.2283975</v>
+        <v>0.280919</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4634,7 +4634,7 @@
         <v>302</v>
       </c>
       <c r="D303">
-        <v>0.1724188</v>
+        <v>0.2333281</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4648,7 +4648,7 @@
         <v>303</v>
       </c>
       <c r="D304">
-        <v>0.1724188</v>
+        <v>0.2333281</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4662,7 +4662,7 @@
         <v>304</v>
       </c>
       <c r="D305">
-        <v>0.1724188</v>
+        <v>0.2333281</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>305</v>
       </c>
       <c r="D306">
-        <v>0.1724188</v>
+        <v>0.2333281</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4690,7 +4690,7 @@
         <v>306</v>
       </c>
       <c r="D307">
-        <v>0.1724188</v>
+        <v>0.2333281</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4704,7 +4704,7 @@
         <v>307</v>
       </c>
       <c r="D308">
-        <v>0.1724188</v>
+        <v>0.2333281</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4718,7 +4718,7 @@
         <v>308</v>
       </c>
       <c r="D309">
-        <v>0.1724188</v>
+        <v>0.2333281</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4732,7 +4732,7 @@
         <v>309</v>
       </c>
       <c r="D310">
-        <v>0.1100618</v>
+        <v>0.1925555</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>310</v>
       </c>
       <c r="D311">
-        <v>0.1100618</v>
+        <v>0.1925555</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>311</v>
       </c>
       <c r="D312">
-        <v>0.1100618</v>
+        <v>0.1925555</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>312</v>
       </c>
       <c r="D313">
-        <v>0.1100618</v>
+        <v>0.1925555</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>313</v>
       </c>
       <c r="D314">
-        <v>0.1100618</v>
+        <v>0.1925555</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>314</v>
       </c>
       <c r="D315">
-        <v>0.1100618</v>
+        <v>0.1925555</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>315</v>
       </c>
       <c r="D316">
-        <v>0.1100618</v>
+        <v>0.1925555</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>316</v>
       </c>
       <c r="D317">
-        <v>0.0411413</v>
+        <v>0.1622489</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>317</v>
       </c>
       <c r="D318">
-        <v>0.0411413</v>
+        <v>0.1622489</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>318</v>
       </c>
       <c r="D319">
-        <v>0.0411413</v>
+        <v>0.1622489</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>319</v>
       </c>
       <c r="D320">
-        <v>0.0411413</v>
+        <v>0.1622489</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>320</v>
       </c>
       <c r="D321">
-        <v>0.0411413</v>
+        <v>0.1622489</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>321</v>
       </c>
       <c r="D322">
-        <v>0.0411413</v>
+        <v>0.1622489</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>322</v>
       </c>
       <c r="D323">
-        <v>0.0411413</v>
+        <v>0.1622489</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>323</v>
       </c>
       <c r="D324">
-        <v>0.0098286</v>
+        <v>0.1418359</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>324</v>
       </c>
       <c r="D325">
-        <v>0.0098286</v>
+        <v>0.1418359</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>325</v>
       </c>
       <c r="D326">
-        <v>0.0098286</v>
+        <v>0.1418359</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>326</v>
       </c>
       <c r="D327">
-        <v>0.0098286</v>
+        <v>0.1418359</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>327</v>
       </c>
       <c r="D328">
-        <v>0.0098286</v>
+        <v>0.1418359</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>328</v>
       </c>
       <c r="D329">
-        <v>0.0098286</v>
+        <v>0.1418359</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>329</v>
       </c>
       <c r="D330">
-        <v>0.0098286</v>
+        <v>0.1418359</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>330</v>
       </c>
       <c r="D331">
-        <v>0.0098286</v>
+        <v>0.1287973</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>331</v>
       </c>
       <c r="D332">
-        <v>0.0098286</v>
+        <v>0.1287973</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>332</v>
       </c>
       <c r="D333">
-        <v>0.0098286</v>
+        <v>0.1287973</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>333</v>
       </c>
       <c r="D334">
-        <v>0.0098286</v>
+        <v>0.1287973</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>334</v>
       </c>
       <c r="D335">
-        <v>0.0098286</v>
+        <v>0.1287973</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>335</v>
       </c>
       <c r="D336">
-        <v>0.0098286</v>
+        <v>0.1287973</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>336</v>
       </c>
       <c r="D337">
-        <v>0.0098286</v>
+        <v>0.1287973</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5124,7 +5124,7 @@
         <v>337</v>
       </c>
       <c r="D338">
-        <v>0.0098286</v>
+        <v>0.1206138</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5138,7 +5138,7 @@
         <v>338</v>
       </c>
       <c r="D339">
-        <v>0.0098286</v>
+        <v>0.1206138</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5152,7 +5152,7 @@
         <v>339</v>
       </c>
       <c r="D340">
-        <v>0.0098286</v>
+        <v>0.1206138</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5166,7 +5166,7 @@
         <v>340</v>
       </c>
       <c r="D341">
-        <v>0.0098286</v>
+        <v>0.1206138</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5180,7 +5180,7 @@
         <v>341</v>
       </c>
       <c r="D342">
-        <v>0.0098286</v>
+        <v>0.1206138</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5194,7 +5194,7 @@
         <v>342</v>
       </c>
       <c r="D343">
-        <v>0.0098286</v>
+        <v>0.1206138</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5208,7 +5208,7 @@
         <v>343</v>
       </c>
       <c r="D344">
-        <v>0.0098286</v>
+        <v>0.1206138</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5222,7 +5222,7 @@
         <v>344</v>
       </c>
       <c r="D345">
-        <v>0.0098286</v>
+        <v>0.1154491</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5236,7 +5236,7 @@
         <v>345</v>
       </c>
       <c r="D346">
-        <v>0.0098286</v>
+        <v>0.1154491</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5250,7 +5250,7 @@
         <v>346</v>
       </c>
       <c r="D347">
-        <v>0.0098286</v>
+        <v>0.1154491</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5264,7 +5264,7 @@
         <v>347</v>
       </c>
       <c r="D348">
-        <v>0.0098286</v>
+        <v>0.1154491</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5278,7 +5278,7 @@
         <v>348</v>
       </c>
       <c r="D349">
-        <v>0.0098286</v>
+        <v>0.1154491</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5292,7 +5292,7 @@
         <v>349</v>
       </c>
       <c r="D350">
-        <v>0.0098286</v>
+        <v>0.1154491</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5306,7 +5306,7 @@
         <v>350</v>
       </c>
       <c r="D351">
-        <v>0.0098286</v>
+        <v>0.1154491</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>351</v>
       </c>
       <c r="D352">
-        <v>0.0098286</v>
+        <v>0.1121294</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5334,7 +5334,7 @@
         <v>352</v>
       </c>
       <c r="D353">
-        <v>0.0098286</v>
+        <v>0.1121294</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5348,7 +5348,7 @@
         <v>353</v>
       </c>
       <c r="D354">
-        <v>0.0098286</v>
+        <v>0.1121294</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>354</v>
       </c>
       <c r="D355">
-        <v>0.0098286</v>
+        <v>0.1121294</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5376,7 +5376,7 @@
         <v>355</v>
       </c>
       <c r="D356">
-        <v>0.0098286</v>
+        <v>0.1121294</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5390,7 +5390,7 @@
         <v>356</v>
       </c>
       <c r="D357">
-        <v>0.0098286</v>
+        <v>0.1121294</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5404,7 +5404,7 @@
         <v>357</v>
       </c>
       <c r="D358">
-        <v>0.0098286</v>
+        <v>0.1121294</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5418,7 +5418,7 @@
         <v>358</v>
       </c>
       <c r="D359">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5432,7 +5432,7 @@
         <v>359</v>
       </c>
       <c r="D360">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5446,7 +5446,7 @@
         <v>360</v>
       </c>
       <c r="D361">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5460,7 +5460,7 @@
         <v>361</v>
       </c>
       <c r="D362">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5474,7 +5474,7 @@
         <v>362</v>
       </c>
       <c r="D363">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5488,7 +5488,7 @@
         <v>363</v>
       </c>
       <c r="D364">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5502,7 +5502,7 @@
         <v>364</v>
       </c>
       <c r="D365">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5516,7 +5516,7 @@
         <v>365</v>
       </c>
       <c r="D366">
-        <v>0.0098286</v>
+        <v>0.1098268</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
@@ -3262,7 +3262,7 @@
         <v>204</v>
       </c>
       <c r="D205">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3276,7 +3276,7 @@
         <v>205</v>
       </c>
       <c r="D206">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3290,7 +3290,7 @@
         <v>206</v>
       </c>
       <c r="D207">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3304,7 +3304,7 @@
         <v>207</v>
       </c>
       <c r="D208">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3318,7 +3318,7 @@
         <v>208</v>
       </c>
       <c r="D209">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3332,7 +3332,7 @@
         <v>209</v>
       </c>
       <c r="D210">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3346,7 +3346,7 @@
         <v>210</v>
       </c>
       <c r="D211">
-        <v>0.4540282</v>
+        <v>0.4540283</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3360,7 +3360,7 @@
         <v>211</v>
       </c>
       <c r="D212">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3374,7 +3374,7 @@
         <v>212</v>
       </c>
       <c r="D213">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3388,7 +3388,7 @@
         <v>213</v>
       </c>
       <c r="D214">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3402,7 +3402,7 @@
         <v>214</v>
       </c>
       <c r="D215">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3416,7 +3416,7 @@
         <v>215</v>
       </c>
       <c r="D216">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3430,7 +3430,7 @@
         <v>216</v>
       </c>
       <c r="D217">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3444,7 +3444,7 @@
         <v>217</v>
       </c>
       <c r="D218">
-        <v>0.4558202</v>
+        <v>0.4558204</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3458,7 +3458,7 @@
         <v>218</v>
       </c>
       <c r="D219">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3472,7 +3472,7 @@
         <v>219</v>
       </c>
       <c r="D220">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3486,7 +3486,7 @@
         <v>220</v>
       </c>
       <c r="D221">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3500,7 +3500,7 @@
         <v>221</v>
       </c>
       <c r="D222">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3514,7 +3514,7 @@
         <v>222</v>
       </c>
       <c r="D223">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3528,7 +3528,7 @@
         <v>223</v>
       </c>
       <c r="D224">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3542,7 +3542,7 @@
         <v>224</v>
       </c>
       <c r="D225">
-        <v>0.4571062</v>
+        <v>0.4571071</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3556,7 +3556,7 @@
         <v>225</v>
       </c>
       <c r="D226">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3570,7 +3570,7 @@
         <v>226</v>
       </c>
       <c r="D227">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3584,7 +3584,7 @@
         <v>227</v>
       </c>
       <c r="D228">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3598,7 +3598,7 @@
         <v>228</v>
       </c>
       <c r="D229">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3612,7 +3612,7 @@
         <v>229</v>
       </c>
       <c r="D230">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3626,7 +3626,7 @@
         <v>230</v>
       </c>
       <c r="D231">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3640,7 +3640,7 @@
         <v>231</v>
       </c>
       <c r="D232">
-        <v>0.4578825</v>
+        <v>0.4578865</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3654,7 +3654,7 @@
         <v>232</v>
       </c>
       <c r="D233">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3668,7 +3668,7 @@
         <v>233</v>
       </c>
       <c r="D234">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3682,7 +3682,7 @@
         <v>234</v>
       </c>
       <c r="D235">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3696,7 +3696,7 @@
         <v>235</v>
       </c>
       <c r="D236">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3710,7 +3710,7 @@
         <v>236</v>
       </c>
       <c r="D237">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3724,7 +3724,7 @@
         <v>237</v>
       </c>
       <c r="D238">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3738,7 +3738,7 @@
         <v>238</v>
       </c>
       <c r="D239">
-        <v>0.4578512</v>
+        <v>0.4578663</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3752,7 +3752,7 @@
         <v>239</v>
       </c>
       <c r="D240">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3766,7 +3766,7 @@
         <v>240</v>
       </c>
       <c r="D241">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3780,7 +3780,7 @@
         <v>241</v>
       </c>
       <c r="D242">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3794,7 +3794,7 @@
         <v>242</v>
       </c>
       <c r="D243">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3808,7 +3808,7 @@
         <v>243</v>
       </c>
       <c r="D244">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3822,7 +3822,7 @@
         <v>244</v>
       </c>
       <c r="D245">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3836,7 +3836,7 @@
         <v>245</v>
       </c>
       <c r="D246">
-        <v>0.4564597</v>
+        <v>0.4565129</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3850,7 +3850,7 @@
         <v>246</v>
       </c>
       <c r="D247">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3864,7 +3864,7 @@
         <v>247</v>
       </c>
       <c r="D248">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3878,7 +3878,7 @@
         <v>248</v>
       </c>
       <c r="D249">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3892,7 +3892,7 @@
         <v>249</v>
       </c>
       <c r="D250">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3906,7 +3906,7 @@
         <v>250</v>
       </c>
       <c r="D251">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3920,7 +3920,7 @@
         <v>251</v>
       </c>
       <c r="D252">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3934,7 +3934,7 @@
         <v>252</v>
       </c>
       <c r="D253">
-        <v>0.452982</v>
+        <v>0.4531566</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3948,7 +3948,7 @@
         <v>253</v>
       </c>
       <c r="D254">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3962,7 +3962,7 @@
         <v>254</v>
       </c>
       <c r="D255">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3976,7 +3976,7 @@
         <v>255</v>
       </c>
       <c r="D256">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3990,7 +3990,7 @@
         <v>256</v>
       </c>
       <c r="D257">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4004,7 +4004,7 @@
         <v>257</v>
       </c>
       <c r="D258">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4018,7 +4018,7 @@
         <v>258</v>
       </c>
       <c r="D259">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4032,7 +4032,7 @@
         <v>259</v>
       </c>
       <c r="D260">
-        <v>0.4465912</v>
+        <v>0.4471211</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4046,7 +4046,7 @@
         <v>260</v>
       </c>
       <c r="D261">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4060,7 +4060,7 @@
         <v>261</v>
       </c>
       <c r="D262">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4074,7 +4074,7 @@
         <v>262</v>
       </c>
       <c r="D263">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4088,7 +4088,7 @@
         <v>263</v>
       </c>
       <c r="D264">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4102,7 +4102,7 @@
         <v>264</v>
       </c>
       <c r="D265">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4116,7 +4116,7 @@
         <v>265</v>
       </c>
       <c r="D266">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4130,7 +4130,7 @@
         <v>266</v>
       </c>
       <c r="D267">
-        <v>0.4363407</v>
+        <v>0.4378224</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4144,7 +4144,7 @@
         <v>267</v>
       </c>
       <c r="D268">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4158,7 +4158,7 @@
         <v>268</v>
       </c>
       <c r="D269">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4172,7 +4172,7 @@
         <v>269</v>
       </c>
       <c r="D270">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4186,7 +4186,7 @@
         <v>270</v>
       </c>
       <c r="D271">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4200,7 +4200,7 @@
         <v>271</v>
       </c>
       <c r="D272">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4214,7 +4214,7 @@
         <v>272</v>
       </c>
       <c r="D273">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4228,7 +4228,7 @@
         <v>273</v>
       </c>
       <c r="D274">
-        <v>0.4210124</v>
+        <v>0.4248062</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4242,7 +4242,7 @@
         <v>274</v>
       </c>
       <c r="D275">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>275</v>
       </c>
       <c r="D276">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4270,7 +4270,7 @@
         <v>276</v>
       </c>
       <c r="D277">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4284,7 +4284,7 @@
         <v>277</v>
       </c>
       <c r="D278">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4298,7 +4298,7 @@
         <v>278</v>
       </c>
       <c r="D279">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4312,7 +4312,7 @@
         <v>279</v>
       </c>
       <c r="D280">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4326,7 +4326,7 @@
         <v>280</v>
       </c>
       <c r="D281">
-        <v>0.3989418</v>
+        <v>0.4077434</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4340,7 +4340,7 @@
         <v>281</v>
       </c>
       <c r="D282">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4354,7 +4354,7 @@
         <v>282</v>
       </c>
       <c r="D283">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4368,7 +4368,7 @@
         <v>283</v>
       </c>
       <c r="D284">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4382,7 +4382,7 @@
         <v>284</v>
       </c>
       <c r="D285">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4396,7 +4396,7 @@
         <v>285</v>
       </c>
       <c r="D286">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4410,7 +4410,7 @@
         <v>286</v>
       </c>
       <c r="D287">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4424,7 +4424,7 @@
         <v>287</v>
       </c>
       <c r="D288">
-        <v>0.368237</v>
+        <v>0.3864316</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4438,7 +4438,7 @@
         <v>288</v>
       </c>
       <c r="D289">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4452,7 +4452,7 @@
         <v>289</v>
       </c>
       <c r="D290">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4466,7 +4466,7 @@
         <v>290</v>
       </c>
       <c r="D291">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4480,7 +4480,7 @@
         <v>291</v>
       </c>
       <c r="D292">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4494,7 +4494,7 @@
         <v>292</v>
       </c>
       <c r="D293">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4508,7 +4508,7 @@
         <v>293</v>
       </c>
       <c r="D294">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4522,7 +4522,7 @@
         <v>294</v>
       </c>
       <c r="D295">
-        <v>0.3280665</v>
+        <v>0.3608309</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4536,7 +4536,7 @@
         <v>295</v>
       </c>
       <c r="D296">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4550,7 +4550,7 @@
         <v>296</v>
       </c>
       <c r="D297">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4564,7 +4564,7 @@
         <v>297</v>
       </c>
       <c r="D298">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4578,7 +4578,7 @@
         <v>298</v>
       </c>
       <c r="D299">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4592,7 +4592,7 @@
         <v>299</v>
       </c>
       <c r="D300">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4606,7 +4606,7 @@
         <v>300</v>
       </c>
       <c r="D301">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>301</v>
       </c>
       <c r="D302">
-        <v>0.280919</v>
+        <v>0.3311315</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4634,7 +4634,7 @@
         <v>302</v>
       </c>
       <c r="D303">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4648,7 +4648,7 @@
         <v>303</v>
       </c>
       <c r="D304">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4662,7 +4662,7 @@
         <v>304</v>
       </c>
       <c r="D305">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4676,7 +4676,7 @@
         <v>305</v>
       </c>
       <c r="D306">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4690,7 +4690,7 @@
         <v>306</v>
       </c>
       <c r="D307">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4704,7 +4704,7 @@
         <v>307</v>
       </c>
       <c r="D308">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4718,7 +4718,7 @@
         <v>308</v>
       </c>
       <c r="D309">
-        <v>0.2333281</v>
+        <v>0.2978617</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4732,7 +4732,7 @@
         <v>309</v>
       </c>
       <c r="D310">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4746,7 +4746,7 @@
         <v>310</v>
       </c>
       <c r="D311">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4760,7 +4760,7 @@
         <v>311</v>
       </c>
       <c r="D312">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4774,7 +4774,7 @@
         <v>312</v>
       </c>
       <c r="D313">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4788,7 +4788,7 @@
         <v>313</v>
       </c>
       <c r="D314">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4802,7 +4802,7 @@
         <v>314</v>
       </c>
       <c r="D315">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4816,7 +4816,7 @@
         <v>315</v>
       </c>
       <c r="D316">
-        <v>0.1925555</v>
+        <v>0.2620732</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4830,7 +4830,7 @@
         <v>316</v>
       </c>
       <c r="D317">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4844,7 +4844,7 @@
         <v>317</v>
       </c>
       <c r="D318">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4858,7 +4858,7 @@
         <v>318</v>
       </c>
       <c r="D319">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4872,7 +4872,7 @@
         <v>319</v>
       </c>
       <c r="D320">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4886,7 +4886,7 @@
         <v>320</v>
       </c>
       <c r="D321">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4900,7 +4900,7 @@
         <v>321</v>
       </c>
       <c r="D322">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4914,7 +4914,7 @@
         <v>322</v>
       </c>
       <c r="D323">
-        <v>0.1622489</v>
+        <v>0.2255623</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4928,7 +4928,7 @@
         <v>323</v>
       </c>
       <c r="D324">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4942,7 +4942,7 @@
         <v>324</v>
       </c>
       <c r="D325">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4956,7 +4956,7 @@
         <v>325</v>
       </c>
       <c r="D326">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4970,7 +4970,7 @@
         <v>326</v>
       </c>
       <c r="D327">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4984,7 +4984,7 @@
         <v>327</v>
       </c>
       <c r="D328">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4998,7 +4998,7 @@
         <v>328</v>
       </c>
       <c r="D329">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5012,7 +5012,7 @@
         <v>329</v>
       </c>
       <c r="D330">
-        <v>0.1418359</v>
+        <v>0.1908385</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5026,7 +5026,7 @@
         <v>330</v>
       </c>
       <c r="D331">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5040,7 +5040,7 @@
         <v>331</v>
       </c>
       <c r="D332">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5054,7 +5054,7 @@
         <v>332</v>
       </c>
       <c r="D333">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5068,7 +5068,7 @@
         <v>333</v>
       </c>
       <c r="D334">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5082,7 +5082,7 @@
         <v>334</v>
       </c>
       <c r="D335">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5096,7 +5096,7 @@
         <v>335</v>
       </c>
       <c r="D336">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5110,7 +5110,7 @@
         <v>336</v>
       </c>
       <c r="D337">
-        <v>0.1287973</v>
+        <v>0.1605056</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5124,7 +5124,7 @@
         <v>337</v>
       </c>
       <c r="D338">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5138,7 +5138,7 @@
         <v>338</v>
       </c>
       <c r="D339">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5152,7 +5152,7 @@
         <v>339</v>
       </c>
       <c r="D340">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5166,7 +5166,7 @@
         <v>340</v>
       </c>
       <c r="D341">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5180,7 +5180,7 @@
         <v>341</v>
       </c>
       <c r="D342">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5194,7 +5194,7 @@
         <v>342</v>
       </c>
       <c r="D343">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5208,7 +5208,7 @@
         <v>343</v>
       </c>
       <c r="D344">
-        <v>0.1206138</v>
+        <v>0.1362931</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5222,7 +5222,7 @@
         <v>344</v>
       </c>
       <c r="D345">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5236,7 +5236,7 @@
         <v>345</v>
       </c>
       <c r="D346">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5250,7 +5250,7 @@
         <v>346</v>
       </c>
       <c r="D347">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5264,7 +5264,7 @@
         <v>347</v>
       </c>
       <c r="D348">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5278,7 +5278,7 @@
         <v>348</v>
       </c>
       <c r="D349">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5292,7 +5292,7 @@
         <v>349</v>
       </c>
       <c r="D350">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5306,7 +5306,7 @@
         <v>350</v>
       </c>
       <c r="D351">
-        <v>0.1154491</v>
+        <v>0.1185185</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>351</v>
       </c>
       <c r="D352">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5334,7 +5334,7 @@
         <v>352</v>
       </c>
       <c r="D353">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5348,7 +5348,7 @@
         <v>353</v>
       </c>
       <c r="D354">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5362,7 +5362,7 @@
         <v>354</v>
       </c>
       <c r="D355">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5376,7 +5376,7 @@
         <v>355</v>
       </c>
       <c r="D356">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5390,7 +5390,7 @@
         <v>356</v>
       </c>
       <c r="D357">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5404,7 +5404,7 @@
         <v>357</v>
       </c>
       <c r="D358">
-        <v>0.1121294</v>
+        <v>0.1063507</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5418,7 +5418,7 @@
         <v>358</v>
       </c>
       <c r="D359">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5432,7 +5432,7 @@
         <v>359</v>
       </c>
       <c r="D360">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5446,7 +5446,7 @@
         <v>360</v>
       </c>
       <c r="D361">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5460,7 +5460,7 @@
         <v>361</v>
       </c>
       <c r="D362">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5474,7 +5474,7 @@
         <v>362</v>
       </c>
       <c r="D363">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5488,7 +5488,7 @@
         <v>363</v>
       </c>
       <c r="D364">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5502,7 +5502,7 @@
         <v>364</v>
       </c>
       <c r="D365">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5516,7 +5516,7 @@
         <v>365</v>
       </c>
       <c r="D366">
-        <v>0.1098268</v>
+        <v>0.0980685</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
@@ -420,7 +420,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -434,7 +434,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -448,7 +448,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -462,7 +462,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -476,7 +476,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -504,7 +504,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>0.1093562</v>
+        <v>0.1095457</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -518,7 +518,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -532,7 +532,7 @@
         <v>9</v>
       </c>
       <c r="D10">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -546,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="D11">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -560,7 +560,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="D13">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -588,7 +588,7 @@
         <v>13</v>
       </c>
       <c r="D14">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <v>0.1099383</v>
+        <v>0.1101343</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -616,7 +616,7 @@
         <v>15</v>
       </c>
       <c r="D16">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -630,7 +630,7 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -644,7 +644,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -658,7 +658,7 @@
         <v>18</v>
       </c>
       <c r="D19">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -672,7 +672,7 @@
         <v>19</v>
       </c>
       <c r="D20">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -686,7 +686,7 @@
         <v>20</v>
       </c>
       <c r="D21">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -700,7 +700,7 @@
         <v>21</v>
       </c>
       <c r="D22">
-        <v>0.1105753</v>
+        <v>0.1107684</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -714,7 +714,7 @@
         <v>22</v>
       </c>
       <c r="D23">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
       <c r="D24">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -742,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="D25">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,7 +756,7 @@
         <v>25</v>
       </c>
       <c r="D26">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -770,7 +770,7 @@
         <v>26</v>
       </c>
       <c r="D27">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -784,7 +784,7 @@
         <v>27</v>
       </c>
       <c r="D28">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -798,7 +798,7 @@
         <v>28</v>
       </c>
       <c r="D29">
-        <v>0.1111836</v>
+        <v>0.1113657</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -812,7 +812,7 @@
         <v>29</v>
       </c>
       <c r="D30">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -826,7 +826,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -840,7 +840,7 @@
         <v>31</v>
       </c>
       <c r="D32">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -854,7 +854,7 @@
         <v>32</v>
       </c>
       <c r="D33">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -868,7 +868,7 @@
         <v>33</v>
       </c>
       <c r="D34">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -882,7 +882,7 @@
         <v>34</v>
       </c>
       <c r="D35">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -896,7 +896,7 @@
         <v>35</v>
       </c>
       <c r="D36">
-        <v>0.1116654</v>
+        <v>0.1118316</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -910,7 +910,7 @@
         <v>36</v>
       </c>
       <c r="D37">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -924,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="D38">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -938,7 +938,7 @@
         <v>38</v>
       </c>
       <c r="D39">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -952,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="D40">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -966,7 +966,7 @@
         <v>40</v>
       </c>
       <c r="D41">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -980,7 +980,7 @@
         <v>41</v>
       </c>
       <c r="D42">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -994,7 +994,7 @@
         <v>42</v>
       </c>
       <c r="D43">
-        <v>0.1119481</v>
+        <v>0.1120966</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1008,7 +1008,7 @@
         <v>43</v>
       </c>
       <c r="D44">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1022,7 +1022,7 @@
         <v>44</v>
       </c>
       <c r="D45">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1036,7 +1036,7 @@
         <v>45</v>
       </c>
       <c r="D46">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1050,7 +1050,7 @@
         <v>46</v>
       </c>
       <c r="D47">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1064,7 +1064,7 @@
         <v>47</v>
       </c>
       <c r="D48">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1078,7 +1078,7 @@
         <v>48</v>
       </c>
       <c r="D49">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1092,7 +1092,7 @@
         <v>49</v>
       </c>
       <c r="D50">
-        <v>0.1120475</v>
+        <v>0.1121765</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1106,7 +1106,7 @@
         <v>50</v>
       </c>
       <c r="D51">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1120,7 +1120,7 @@
         <v>51</v>
       </c>
       <c r="D52">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1134,7 +1134,7 @@
         <v>52</v>
       </c>
       <c r="D53">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1148,7 +1148,7 @@
         <v>53</v>
       </c>
       <c r="D54">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1162,7 +1162,7 @@
         <v>54</v>
       </c>
       <c r="D55">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1176,7 +1176,7 @@
         <v>55</v>
       </c>
       <c r="D56">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1190,7 +1190,7 @@
         <v>56</v>
       </c>
       <c r="D57">
-        <v>0.1121255</v>
+        <v>0.1122303</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1204,7 +1204,7 @@
         <v>57</v>
       </c>
       <c r="D58">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1218,7 +1218,7 @@
         <v>58</v>
       </c>
       <c r="D59">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1232,7 +1232,7 @@
         <v>59</v>
       </c>
       <c r="D60">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1246,7 +1246,7 @@
         <v>60</v>
       </c>
       <c r="D61">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1260,7 +1260,7 @@
         <v>61</v>
       </c>
       <c r="D62">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1274,7 +1274,7 @@
         <v>62</v>
       </c>
       <c r="D63">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1288,7 +1288,7 @@
         <v>63</v>
       </c>
       <c r="D64">
-        <v>0.1124935</v>
+        <v>0.1125673</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1302,7 +1302,7 @@
         <v>64</v>
       </c>
       <c r="D65">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1316,7 +1316,7 @@
         <v>65</v>
       </c>
       <c r="D66">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1330,7 +1330,7 @@
         <v>66</v>
       </c>
       <c r="D67">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1344,7 +1344,7 @@
         <v>67</v>
       </c>
       <c r="D68">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1358,7 +1358,7 @@
         <v>68</v>
       </c>
       <c r="D69">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1372,7 +1372,7 @@
         <v>69</v>
       </c>
       <c r="D70">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1386,7 +1386,7 @@
         <v>70</v>
       </c>
       <c r="D71">
-        <v>0.1135478</v>
+        <v>0.1135872</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1400,7 +1400,7 @@
         <v>71</v>
       </c>
       <c r="D72">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1414,7 +1414,7 @@
         <v>72</v>
       </c>
       <c r="D73">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1428,7 +1428,7 @@
         <v>73</v>
       </c>
       <c r="D74">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1442,7 +1442,7 @@
         <v>74</v>
       </c>
       <c r="D75">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1456,7 +1456,7 @@
         <v>75</v>
       </c>
       <c r="D76">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1470,7 +1470,7 @@
         <v>76</v>
       </c>
       <c r="D77">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
       <c r="D78">
-        <v>0.1156918</v>
+        <v>0.1157002</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1498,7 +1498,7 @@
         <v>78</v>
       </c>
       <c r="D79">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1512,7 +1512,7 @@
         <v>79</v>
       </c>
       <c r="D80">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1526,7 +1526,7 @@
         <v>80</v>
       </c>
       <c r="D81">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1540,7 +1540,7 @@
         <v>81</v>
       </c>
       <c r="D82">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1554,7 +1554,7 @@
         <v>82</v>
       </c>
       <c r="D83">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1568,7 +1568,7 @@
         <v>83</v>
       </c>
       <c r="D84">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1582,7 +1582,7 @@
         <v>84</v>
       </c>
       <c r="D85">
-        <v>0.1193118</v>
+        <v>0.1192983</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1596,7 +1596,7 @@
         <v>85</v>
       </c>
       <c r="D86">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1610,7 +1610,7 @@
         <v>86</v>
       </c>
       <c r="D87">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1624,7 +1624,7 @@
         <v>87</v>
       </c>
       <c r="D88">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1638,7 +1638,7 @@
         <v>88</v>
       </c>
       <c r="D89">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1652,7 +1652,7 @@
         <v>89</v>
       </c>
       <c r="D90">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1666,7 +1666,7 @@
         <v>90</v>
       </c>
       <c r="D91">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1680,7 +1680,7 @@
         <v>91</v>
       </c>
       <c r="D92">
-        <v>0.1248228</v>
+        <v>0.1247979</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1694,7 +1694,7 @@
         <v>92</v>
       </c>
       <c r="D93">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1708,7 +1708,7 @@
         <v>93</v>
       </c>
       <c r="D94">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1722,7 +1722,7 @@
         <v>94</v>
       </c>
       <c r="D95">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1736,7 +1736,7 @@
         <v>95</v>
       </c>
       <c r="D96">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1750,7 +1750,7 @@
         <v>96</v>
       </c>
       <c r="D97">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1764,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="D98">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1778,7 +1778,7 @@
         <v>98</v>
       </c>
       <c r="D99">
-        <v>0.1327456</v>
+        <v>0.132718</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1792,7 +1792,7 @@
         <v>99</v>
       </c>
       <c r="D100">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1806,7 +1806,7 @@
         <v>100</v>
       </c>
       <c r="D101">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1820,7 +1820,7 @@
         <v>101</v>
       </c>
       <c r="D102">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1834,7 +1834,7 @@
         <v>102</v>
       </c>
       <c r="D103">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1848,7 +1848,7 @@
         <v>103</v>
       </c>
       <c r="D104">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1862,7 +1862,7 @@
         <v>104</v>
       </c>
       <c r="D105">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1876,7 +1876,7 @@
         <v>105</v>
       </c>
       <c r="D106">
-        <v>0.1437692</v>
+        <v>0.1437445</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1890,7 +1890,7 @@
         <v>106</v>
       </c>
       <c r="D107">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1904,7 +1904,7 @@
         <v>107</v>
       </c>
       <c r="D108">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1918,7 +1918,7 @@
         <v>108</v>
       </c>
       <c r="D109">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1932,7 +1932,7 @@
         <v>109</v>
       </c>
       <c r="D110">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1946,7 +1946,7 @@
         <v>110</v>
       </c>
       <c r="D111">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1960,7 +1960,7 @@
         <v>111</v>
       </c>
       <c r="D112">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1974,7 +1974,7 @@
         <v>112</v>
       </c>
       <c r="D113">
-        <v>0.1587521</v>
+        <v>0.1587328</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1988,7 +1988,7 @@
         <v>113</v>
       </c>
       <c r="D114">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2002,7 +2002,7 @@
         <v>114</v>
       </c>
       <c r="D115">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2016,7 +2016,7 @@
         <v>115</v>
       </c>
       <c r="D116">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2030,7 +2030,7 @@
         <v>116</v>
       </c>
       <c r="D117">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2044,7 +2044,7 @@
         <v>117</v>
       </c>
       <c r="D118">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2058,7 +2058,7 @@
         <v>118</v>
       </c>
       <c r="D119">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2072,7 +2072,7 @@
         <v>119</v>
       </c>
       <c r="D120">
-        <v>0.1786048</v>
+        <v>0.1785913</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2086,7 +2086,7 @@
         <v>120</v>
       </c>
       <c r="D121">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2100,7 +2100,7 @@
         <v>121</v>
       </c>
       <c r="D122">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2114,7 +2114,7 @@
         <v>122</v>
       </c>
       <c r="D123">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2128,7 +2128,7 @@
         <v>123</v>
       </c>
       <c r="D124">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2142,7 +2142,7 @@
         <v>124</v>
       </c>
       <c r="D125">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2156,7 +2156,7 @@
         <v>125</v>
       </c>
       <c r="D126">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2170,7 +2170,7 @@
         <v>126</v>
       </c>
       <c r="D127">
-        <v>0.2039923</v>
+        <v>0.2039839</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2184,7 +2184,7 @@
         <v>127</v>
       </c>
       <c r="D128">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2198,7 +2198,7 @@
         <v>128</v>
       </c>
       <c r="D129">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2212,7 +2212,7 @@
         <v>129</v>
       </c>
       <c r="D130">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2226,7 +2226,7 @@
         <v>130</v>
       </c>
       <c r="D131">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2240,7 +2240,7 @@
         <v>131</v>
       </c>
       <c r="D132">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2254,7 +2254,7 @@
         <v>132</v>
       </c>
       <c r="D133">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2268,7 +2268,7 @@
         <v>133</v>
       </c>
       <c r="D134">
-        <v>0.2348632</v>
+        <v>0.2348587</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2282,7 +2282,7 @@
         <v>134</v>
       </c>
       <c r="D135">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2296,7 +2296,7 @@
         <v>135</v>
       </c>
       <c r="D136">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2310,7 +2310,7 @@
         <v>136</v>
       </c>
       <c r="D137">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2324,7 +2324,7 @@
         <v>137</v>
       </c>
       <c r="D138">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2338,7 +2338,7 @@
         <v>138</v>
       </c>
       <c r="D139">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2352,7 +2352,7 @@
         <v>139</v>
       </c>
       <c r="D140">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2366,7 +2366,7 @@
         <v>140</v>
       </c>
       <c r="D141">
-        <v>0.2699906</v>
+        <v>0.2699885</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2380,7 +2380,7 @@
         <v>141</v>
       </c>
       <c r="D142">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2394,7 +2394,7 @@
         <v>142</v>
       </c>
       <c r="D143">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2408,7 +2408,7 @@
         <v>143</v>
       </c>
       <c r="D144">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2422,7 +2422,7 @@
         <v>144</v>
       </c>
       <c r="D145">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2436,7 +2436,7 @@
         <v>145</v>
       </c>
       <c r="D146">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2450,7 +2450,7 @@
         <v>146</v>
       </c>
       <c r="D147">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>147</v>
       </c>
       <c r="D148">
-        <v>0.3068962</v>
+        <v>0.3068953</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2478,7 +2478,7 @@
         <v>148</v>
       </c>
       <c r="D149">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2492,7 +2492,7 @@
         <v>149</v>
       </c>
       <c r="D150">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2506,7 +2506,7 @@
         <v>150</v>
       </c>
       <c r="D151">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2520,7 +2520,7 @@
         <v>151</v>
       </c>
       <c r="D152">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2534,7 +2534,7 @@
         <v>152</v>
       </c>
       <c r="D153">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2548,7 +2548,7 @@
         <v>153</v>
       </c>
       <c r="D154">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2562,7 +2562,7 @@
         <v>154</v>
       </c>
       <c r="D155">
-        <v>0.3424243</v>
+        <v>0.342424</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2576,7 +2576,7 @@
         <v>155</v>
       </c>
       <c r="D156">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2590,7 +2590,7 @@
         <v>156</v>
       </c>
       <c r="D157">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2604,7 +2604,7 @@
         <v>157</v>
       </c>
       <c r="D158">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2618,7 +2618,7 @@
         <v>158</v>
       </c>
       <c r="D159">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2632,7 +2632,7 @@
         <v>159</v>
       </c>
       <c r="D160">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2646,7 +2646,7 @@
         <v>160</v>
       </c>
       <c r="D161">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2660,7 +2660,7 @@
         <v>161</v>
       </c>
       <c r="D162">
-        <v>0.3737478</v>
+        <v>0.3737477</v>
       </c>
     </row>
     <row r="163" spans="1:4">

--- a/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
+++ b/DATA/collate_cultivar_data/data/projected_weekly_data.xlsx
@@ -417,10 +417,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1095457</v>
+        <v>0.1144852</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -431,10 +431,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1095457</v>
+        <v>0.1144852</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -445,10 +445,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>0.1095457</v>
+        <v>0.1144852</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -459,10 +459,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>0.1095457</v>
+        <v>0.1144852</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -473,10 +473,10 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>0.1095457</v>
+        <v>0.1144852</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -487,10 +487,10 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>0.1095457</v>
+        <v>0.1144852</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -501,10 +501,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>0.1095457</v>
+        <v>0.1144852</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -515,10 +515,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>0.1101343</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -529,10 +529,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>0.1101343</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -543,10 +543,10 @@
         <v>2</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>0.1101343</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -557,10 +557,10 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>0.1101343</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -571,10 +571,10 @@
         <v>2</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>0.1101343</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -585,10 +585,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14">
-        <v>0.1101343</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -599,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>0.1101343</v>
+        <v>0.114695</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -613,10 +613,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
-        <v>0.1107684</v>
+        <v>0.114907</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -627,10 +627,10 @@
         <v>3</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17">
-        <v>0.1107684</v>
+        <v>0.114907</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -641,10 +641,10 @@
         <v>3</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18">
-        <v>0.1107684</v>
+        <v>0.114907</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -655,10 +655,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19">
-        <v>0.1107684</v>
+        <v>0.114907</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -669,10 +669,10 @@
         <v>3</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20">
-        <v>0.1107684</v>
+        <v>0.114907</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -683,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21">
-        <v>0.1107684</v>
+        <v>0.114907</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -697,10 +697,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>0.1107684</v>
+        <v>0.114907</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -711,10 +711,10 @@
         <v>4</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>0.1113657</v>
+        <v>0.1150769</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -725,10 +725,10 @@
         <v>4</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>0.1113657</v>
+        <v>0.1150769</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -739,10 +739,10 @@
         <v>4</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>0.1113657</v>
+        <v>0.1150769</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -753,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26">
-        <v>0.1113657</v>
+        <v>0.1150769</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -767,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D27">
-        <v>0.1113657</v>
+        <v>0.1150769</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -781,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28">
-        <v>0.1113657</v>
+        <v>0.1150769</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -795,10 +795,10 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D29">
-        <v>0.1113657</v>
+        <v>0.1150769</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -809,10 +809,10 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D30">
-        <v>0.1118316</v>
+        <v>0.1151847</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -823,10 +823,10 @@
         <v>5</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31">
-        <v>0.1118316</v>
+        <v>0.1151847</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -837,10 +837,10 @@
         <v>5</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
-        <v>0.1118316</v>
+        <v>0.1151847</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -851,10 +851,10 @@
         <v>5</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33">
-        <v>0.1118316</v>
+        <v>0.1151847</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -865,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D34">
-        <v>0.1118316</v>
+        <v>0.1151847</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -879,10 +879,10 @@
         <v>5</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35">
-        <v>0.1118316</v>
+        <v>0.1151847</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -893,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>0.1118316</v>
+        <v>0.1151847</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -907,10 +907,10 @@
         <v>6</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>0.1120966</v>
+        <v>0.1152639</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -921,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D38">
-        <v>0.1120966</v>
+        <v>0.1152639</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -935,10 +935,10 @@
         <v>6</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>0.1120966</v>
+        <v>0.1152639</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -949,10 +949,10 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D40">
-        <v>0.1120966</v>
+        <v>0.1152639</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -963,10 +963,10 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>0.1120966</v>
+        <v>0.1152639</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -977,10 +977,10 @@
         <v>6</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42">
-        <v>0.1120966</v>
+        <v>0.1152639</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -991,10 +991,10 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43">
-        <v>0.1120966</v>
+        <v>0.1152639</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1005,10 +1005,10 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44">
-        <v>0.1121765</v>
+        <v>0.1154239</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1019,10 +1019,10 @@
         <v>7</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45">
-        <v>0.1121765</v>
+        <v>0.1154239</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1033,10 +1033,10 @@
         <v>7</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46">
-        <v>0.1121765</v>
+        <v>0.1154239</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1047,10 +1047,10 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>0.1121765</v>
+        <v>0.1154239</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1061,10 +1061,10 @@
         <v>7</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48">
-        <v>0.1121765</v>
+        <v>0.1154239</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1075,10 +1075,10 @@
         <v>7</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>0.1121765</v>
+        <v>0.1154239</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1089,10 +1089,10 @@
         <v>7</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50">
-        <v>0.1121765</v>
+        <v>0.1154239</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1103,10 +1103,10 @@
         <v>8</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51">
-        <v>0.1122303</v>
+        <v>0.1158497</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1117,10 +1117,10 @@
         <v>8</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D52">
-        <v>0.1122303</v>
+        <v>0.1158497</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1131,10 +1131,10 @@
         <v>8</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D53">
-        <v>0.1122303</v>
+        <v>0.1158497</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1145,10 +1145,10 @@
         <v>8</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D54">
-        <v>0.1122303</v>
+        <v>0.1158497</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1159,10 +1159,10 @@
         <v>8</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D55">
-        <v>0.1122303</v>
+        <v>0.1158497</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1173,10 +1173,10 @@
         <v>8</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56">
-        <v>0.1122303</v>
+        <v>0.1158497</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1187,10 +1187,10 @@
         <v>8</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D57">
-        <v>0.1122303</v>
+        <v>0.1158497</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1201,10 +1201,10 @@
         <v>9</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D58">
-        <v>0.1125673</v>
+        <v>0.1167737</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1215,10 +1215,10 @@
         <v>9</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D59">
-        <v>0.1125673</v>
+        <v>0.1167737</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1229,10 +1229,10 @@
         <v>9</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D60">
-        <v>0.1125673</v>
+        <v>0.1167737</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1243,10 +1243,10 @@
         <v>9</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D61">
-        <v>0.1125673</v>
+        <v>0.1167737</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1257,10 +1257,10 @@
         <v>9</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D62">
-        <v>0.1125673</v>
+        <v>0.1167737</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1271,10 +1271,10 @@
         <v>9</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63">
-        <v>0.1125673</v>
+        <v>0.1167737</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1285,10 +1285,10 @@
         <v>9</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D64">
-        <v>0.1125673</v>
+        <v>0.1167737</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1299,10 +1299,10 @@
         <v>10</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D65">
-        <v>0.1135872</v>
+        <v>0.1184376</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1313,10 +1313,10 @@
         <v>10</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D66">
-        <v>0.1135872</v>
+        <v>0.1184376</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -1327,10 +1327,10 @@
         <v>10</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D67">
-        <v>0.1135872</v>
+        <v>0.1184376</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1341,10 +1341,10 @@
         <v>10</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D68">
-        <v>0.1135872</v>
+        <v>0.1184376</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -1355,10 +1355,10 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D69">
-        <v>0.1135872</v>
+        <v>0.1184376</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1369,10 +1369,10 @@
         <v>10</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D70">
-        <v>0.1135872</v>
+        <v>0.1184376</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1383,10 +1383,10 @@
         <v>10</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71">
-        <v>0.1135872</v>
+        <v>0.1184376</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1397,10 +1397,10 @@
         <v>11</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D72">
-        <v>0.1157002</v>
+        <v>0.1210714</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1411,10 +1411,10 @@
         <v>11</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73">
-        <v>0.1157002</v>
+        <v>0.1210714</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1425,10 +1425,10 @@
         <v>11</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74">
-        <v>0.1157002</v>
+        <v>0.1210714</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1439,10 +1439,10 @@
         <v>11</v>
       </c>
       <c r="C75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75">
-        <v>0.1157002</v>
+        <v>0.1210714</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1453,10 +1453,10 @@
         <v>11</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76">
-        <v>0.1157002</v>
+        <v>0.1210714</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1467,10 +1467,10 @@
         <v>11</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D77">
-        <v>0.1157002</v>
+        <v>0.1210714</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1481,10 +1481,10 @@
         <v>11</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D78">
-        <v>0.1157002</v>
+        <v>0.1210714</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1495,10 +1495,10 @@
         <v>12</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D79">
-        <v>0.1192983</v>
+        <v>0.1249055</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1509,10 +1509,10 @@
         <v>12</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80">
-        <v>0.1192983</v>
+        <v>0.1249055</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -1523,10 +1523,10 @@
         <v>12</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81">
-        <v>0.1192983</v>
+        <v>0.1249055</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -1537,10 +1537,10 @@
         <v>12</v>
       </c>
       <c r="C82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D82">
-        <v>0.1192983</v>
+        <v>0.1249055</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -1551,10 +1551,10 @@
         <v>12</v>
       </c>
       <c r="C83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D83">
-        <v>0.1192983</v>
+        <v>0.1249055</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -1565,10 +1565,10 @@
         <v>12</v>
       </c>
       <c r="C84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84">
-        <v>0.1192983</v>
+        <v>0.1249055</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -1579,10 +1579,10 @@
         <v>12</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85">
-        <v>0.1192983</v>
+        <v>0.1249055</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -1593,10 +1593,10 @@
         <v>13</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D86">
-        <v>0.1247979</v>
+        <v>0.1302135</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1607,10 +1607,10 @@
         <v>13</v>
       </c>
       <c r="C87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87">
-        <v>0.1247979</v>
+        <v>0.1302135</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -1621,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="C88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D88">
-        <v>0.1247979</v>
+        <v>0.1302135</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -1635,10 +1635,10 @@
         <v>13</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D89">
-        <v>0.1247979</v>
+        <v>0.1302135</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -1649,10 +1649,10 @@
         <v>13</v>
       </c>
       <c r="C90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D90">
-        <v>0.1247979</v>
+        <v>0.1302135</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -1663,10 +1663,10 @@
         <v>13</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D91">
-        <v>0.1247979</v>
+        <v>0.1302135</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -1677,10 +1677,10 @@
         <v>13</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D92">
-        <v>0.1247979</v>
+        <v>0.1302135</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -1691,10 +1691,10 @@
         <v>14</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D93">
-        <v>0.132718</v>
+        <v>0.1373788</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1705,10 +1705,10 @@
         <v>14</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D94">
-        <v>0.132718</v>
+        <v>0.1373788</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -1719,10 +1719,10 @@
         <v>14</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D95">
-        <v>0.132718</v>
+        <v>0.1373788</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -1733,10 +1733,10 @@
         <v>14</v>
       </c>
       <c r="C96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D96">
-        <v>0.132718</v>
+        <v>0.1373788</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -1747,10 +1747,10 @@
         <v>14</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D97">
-        <v>0.132718</v>
+        <v>0.1373788</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -1761,10 +1761,10 @@
         <v>14</v>
       </c>
       <c r="C98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D98">
-        <v>0.132718</v>
+        <v>0.1373788</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -1775,10 +1775,10 @@
         <v>14</v>
       </c>
       <c r="C99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D99">
-        <v>0.132718</v>
+        <v>0.1373788</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -1789,10 +1789,10 @@
         <v>15</v>
       </c>
       <c r="C100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D100">
-        <v>0.1437445</v>
+        <v>0.146977</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -1803,10 +1803,10 @@
         <v>15</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D101">
-        <v>0.1437445</v>
+        <v>0.146977</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -1817,10 +1817,10 @@
         <v>15</v>
       </c>
       <c r="C102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D102">
-        <v>0.1437445</v>
+        <v>0.146977</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -1831,10 +1831,10 @@
         <v>15</v>
       </c>
       <c r="C103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D103">
-        <v>0.1437445</v>
+        <v>0.146977</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -1845,10 +1845,10 @@
         <v>15</v>
       </c>
       <c r="C104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104">
-        <v>0.1437445</v>
+        <v>0.146977</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -1859,10 +1859,10 @@
         <v>15</v>
       </c>
       <c r="C105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D105">
-        <v>0.1437445</v>
+        <v>0.146977</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -1873,10 +1873,10 @@
         <v>15</v>
       </c>
       <c r="C106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D106">
-        <v>0.1437445</v>
+        <v>0.146977</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -1887,10 +1887,10 @@
         <v>16</v>
       </c>
       <c r="C107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D107">
-        <v>0.1587328</v>
+        <v>0.159868</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -1901,10 +1901,10 @@
         <v>16</v>
       </c>
       <c r="C108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D108">
-        <v>0.1587328</v>
+        <v>0.159868</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -1915,10 +1915,10 @@
         <v>16</v>
       </c>
       <c r="C109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D109">
-        <v>0.1587328</v>
+        <v>0.159868</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -1929,10 +1929,10 @@
         <v>16</v>
       </c>
       <c r="C110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D110">
-        <v>0.1587328</v>
+        <v>0.159868</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -1943,10 +1943,10 @@
         <v>16</v>
       </c>
       <c r="C111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D111">
-        <v>0.1587328</v>
+        <v>0.159868</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -1957,10 +1957,10 @@
         <v>16</v>
       </c>
       <c r="C112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D112">
-        <v>0.1587328</v>
+        <v>0.159868</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -1971,10 +1971,10 @@
         <v>16</v>
       </c>
       <c r="C113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D113">
-        <v>0.1587328</v>
+        <v>0.159868</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -1985,10 +1985,10 @@
         <v>17</v>
       </c>
       <c r="C114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D114">
-        <v>0.1785913</v>
+        <v>0.1772665</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -1999,10 +1999,10 @@
         <v>17</v>
       </c>
       <c r="C115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D115">
-        <v>0.1785913</v>
+        <v>0.1772665</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2013,10 +2013,10 @@
         <v>17</v>
       </c>
       <c r="C116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D116">
-        <v>0.1785913</v>
+        <v>0.1772665</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2027,10 +2027,10 @@
         <v>17</v>
       </c>
       <c r="C117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D117">
-        <v>0.1785913</v>
+        <v>0.1772665</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2041,10 +2041,10 @@
         <v>17</v>
       </c>
       <c r="C118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D118">
-        <v>0.1785913</v>
+        <v>0.1772665</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2055,10 +2055,10 @@
         <v>17</v>
       </c>
       <c r="C119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D119">
-        <v>0.1785913</v>
+        <v>0.1772665</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2069,10 +2069,10 @@
         <v>17</v>
       </c>
       <c r="C120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D120">
-        <v>0.1785913</v>
+        <v>0.1772665</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2083,10 +2083,10 @@
         <v>18</v>
       </c>
       <c r="C121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D121">
-        <v>0.2039839</v>
+        <v>0.2006966</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2097,10 +2097,10 @@
         <v>18</v>
       </c>
       <c r="C122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D122">
-        <v>0.2039839</v>
+        <v>0.2006966</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2111,10 +2111,10 @@
         <v>18</v>
       </c>
       <c r="C123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D123">
-        <v>0.2039839</v>
+        <v>0.2006966</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2125,10 +2125,10 @@
         <v>18</v>
       </c>
       <c r="C124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D124">
-        <v>0.2039839</v>
+        <v>0.2006966</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2139,10 +2139,10 @@
         <v>18</v>
       </c>
       <c r="C125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D125">
-        <v>0.2039839</v>
+        <v>0.2006966</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2153,10 +2153,10 @@
         <v>18</v>
       </c>
       <c r="C126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D126">
-        <v>0.2039839</v>
+        <v>0.2006966</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2167,10 +2167,10 @@
         <v>18</v>
       </c>
       <c r="C127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D127">
-        <v>0.2039839</v>
+        <v>0.2006966</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2181,10 +2181,10 @@
         <v>19</v>
       </c>
       <c r="C128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D128">
-        <v>0.2348587</v>
+        <v>0.2316335</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2195,10 +2195,10 @@
         <v>19</v>
       </c>
       <c r="C129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D129">
-        <v>0.2348587</v>
+        <v>0.2316335</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2209,10 +2209,10 @@
         <v>19</v>
       </c>
       <c r="C130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D130">
-        <v>0.2348587</v>
+        <v>0.2316335</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2223,10 +2223,10 @@
         <v>19</v>
       </c>
       <c r="C131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D131">
-        <v>0.2348587</v>
+        <v>0.2316335</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2237,10 +2237,10 @@
         <v>19</v>
       </c>
       <c r="C132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D132">
-        <v>0.2348587</v>
+        <v>0.2316335</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2251,10 +2251,10 @@
         <v>19</v>
       </c>
       <c r="C133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D133">
-        <v>0.2348587</v>
+        <v>0.2316335</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2265,10 +2265,10 @@
         <v>19</v>
       </c>
       <c r="C134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D134">
-        <v>0.2348587</v>
+        <v>0.2316335</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2279,10 +2279,10 @@
         <v>20</v>
       </c>
       <c r="C135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D135">
-        <v>0.2699885</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2293,10 +2293,10 @@
         <v>20</v>
       </c>
       <c r="C136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D136">
-        <v>0.2699885</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2307,10 +2307,10 @@
         <v>20</v>
       </c>
       <c r="C137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D137">
-        <v>0.2699885</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2321,10 +2321,10 @@
         <v>20</v>
       </c>
       <c r="C138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138">
-        <v>0.2699885</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2335,10 +2335,10 @@
         <v>20</v>
       </c>
       <c r="C139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D139">
-        <v>0.2699885</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2349,10 +2349,10 @@
         <v>20</v>
       </c>
       <c r="C140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D140">
-        <v>0.2699885</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -2363,10 +2363,10 @@
         <v>20</v>
       </c>
       <c r="C141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D141">
-        <v>0.2699885</v>
+        <v>0.270598</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2377,10 +2377,10 @@
         <v>21</v>
       </c>
       <c r="C142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D142">
-        <v>0.3068953</v>
+        <v>0.3158124</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -2391,10 +2391,10 @@
         <v>21</v>
       </c>
       <c r="C143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D143">
-        <v>0.3068953</v>
+        <v>0.3158124</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -2405,10 +2405,10 @@
         <v>21</v>
       </c>
       <c r="C144">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D144">
-        <v>0.3068953</v>
+        <v>0.3158124</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2419,10 +2419,10 @@
         <v>21</v>
       </c>
       <c r="C145">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D145">
-        <v>0.3068953</v>
+        <v>0.3158124</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2433,10 +2433,10 @@
         <v>21</v>
       </c>
       <c r="C146">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D146">
-        <v>0.3068953</v>
+        <v>0.3158124</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2447,10 +2447,10 @@
         <v>21</v>
       </c>
       <c r="C147">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D147">
-        <v>0.3068953</v>
+        <v>0.3158124</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2461,10 +2461,10 @@
         <v>21</v>
       </c>
       <c r="C148">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D148">
-        <v>0.3068953</v>
+        <v>0.3158124</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2475,10 +2475,10 @@
         <v>22</v>
       </c>
       <c r="C149">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D149">
-        <v>0.342424</v>
+        <v>0.3624677</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2489,10 +2489,10 @@
         <v>22</v>
       </c>
       <c r="C150">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D150">
-        <v>0.342424</v>
+        <v>0.3624677</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2503,10 +2503,10 @@
         <v>22</v>
       </c>
       <c r="C151">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D151">
-        <v>0.342424</v>
+        <v>0.3624677</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2517,10 +2517,10 @@
         <v>22</v>
       </c>
       <c r="C152">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D152">
-        <v>0.342424</v>
+        <v>0.3624677</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2531,10 +2531,10 @@
         <v>22</v>
       </c>
       <c r="C153">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D153">
-        <v>0.342424</v>
+        <v>0.3624677</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2545,10 +2545,10 @@
         <v>22</v>
       </c>
       <c r="C154">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D154">
-        <v>0.342424</v>
+        <v>0.3624677</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2559,10 +2559,10 @@
         <v>22</v>
       </c>
       <c r="C155">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D155">
-        <v>0.342424</v>
+        <v>0.3624677</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2573,10 +2573,10 @@
         <v>23</v>
       </c>
       <c r="C156">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D156">
-        <v>0.3737477</v>
+        <v>0.4041037</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2587,10 +2587,10 @@
         <v>23</v>
       </c>
       <c r="C157">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D157">
-        <v>0.3737477</v>
+        <v>0.4041037</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2601,10 +2601,10 @@
         <v>23</v>
       </c>
       <c r="C158">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D158">
-        <v>0.3737477</v>
+        <v>0.4041037</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2615,10 +2615,10 @@
         <v>23</v>
       </c>
       <c r="C159">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D159">
-        <v>0.3737477</v>
+        <v>0.4041037</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2629,10 +2629,10 @@
         <v>23</v>
       </c>
       <c r="C160">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D160">
-        <v>0.3737477</v>
+        <v>0.4041037</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2643,10 +2643,10 @@
         <v>23</v>
       </c>
       <c r="C161">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D161">
-        <v>0.3737477</v>
+        <v>0.4041037</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2657,10 +2657,10 @@
         <v>23</v>
       </c>
       <c r="C162">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D162">
-        <v>0.3737477</v>
+        <v>0.4041037</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2671,10 +2671,10 @@
         <v>24</v>
       </c>
       <c r="C163">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D163">
-        <v>0.3991903</v>
+        <v>0.4357615</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2685,10 +2685,10 @@
         <v>24</v>
       </c>
       <c r="C164">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D164">
-        <v>0.3991903</v>
+        <v>0.4357615</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2699,10 +2699,10 @@
         <v>24</v>
       </c>
       <c r="C165">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D165">
-        <v>0.3991903</v>
+        <v>0.4357615</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2713,10 +2713,10 @@
         <v>24</v>
       </c>
       <c r="C166">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D166">
-        <v>0.3991903</v>
+        <v>0.4357615</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2727,10 +2727,10 @@
         <v>24</v>
       </c>
       <c r="C167">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D167">
-        <v>0.3991903</v>
+        <v>0.4357615</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -2741,10 +2741,10 @@
         <v>24</v>
       </c>
       <c r="C168">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D168">
-        <v>0.3991903</v>
+        <v>0.4357615</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -2755,10 +2755,10 @@
         <v>24</v>
       </c>
       <c r="C169">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D169">
-        <v>0.3991903</v>
+        <v>0.4357615</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -2769,10 +2769,10 @@
         <v>25</v>
       </c>
       <c r="C170">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D170">
-        <v>0.4184241</v>
+        <v>0.4561185</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -2783,10 +2783,10 @@
         <v>25</v>
       </c>
       <c r="C171">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D171">
-        <v>0.4184241</v>
+        <v>0.4561185</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -2797,10 +2797,10 @@
         <v>25</v>
       </c>
       <c r="C172">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D172">
-        <v>0.4184241</v>
+        <v>0.4561185</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -2811,10 +2811,10 @@
         <v>25</v>
       </c>
       <c r="C173">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D173">
-        <v>0.4184241</v>
+        <v>0.4561185</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -2825,10 +2825,10 @@
         <v>25</v>
       </c>
       <c r="C174">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D174">
-        <v>0.4184241</v>
+        <v>0.4561185</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -2839,10 +2839,10 @@
         <v>25</v>
       </c>
       <c r="C175">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D175">
-        <v>0.4184241</v>
+        <v>0.4561185</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -2853,10 +2853,10 @@
         <v>25</v>
       </c>
       <c r="C176">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D176">
-        <v>0.4184241</v>
+        <v>0.4561185</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -2867,10 +2867,10 @@
         <v>26</v>
       </c>
       <c r="C177">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D177">
-        <v>0.432119</v>
+        <v>0.4669196</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -2881,10 +2881,10 @@
         <v>26</v>
       </c>
       <c r="C178">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D178">
-        <v>0.432119</v>
+        <v>0.4669196</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -2895,10 +2895,10 @@
         <v>26</v>
       </c>
       <c r="C179">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D179">
-        <v>0.432119</v>
+        <v>0.4669196</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -2909,10 +2909,10 @@
         <v>26</v>
       </c>
       <c r="C180">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D180">
-        <v>0.432119</v>
+        <v>0.4669196</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -2923,10 +2923,10 @@
         <v>26</v>
       </c>
       <c r="C181">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D181">
-        <v>0.432119</v>
+        <v>0.4669196</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -2937,10 +2937,10 @@
         <v>26</v>
       </c>
       <c r="C182">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D182">
-        <v>0.432119</v>
+        <v>0.4669196</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -2951,10 +2951,10 @@
         <v>26</v>
       </c>
       <c r="C183">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D183">
-        <v>0.432119</v>
+        <v>0.4669196</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -2965,10 +2965,10 @@
         <v>27</v>
       </c>
       <c r="C184">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D184">
-        <v>0.4414146</v>
+        <v>0.4710383</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -2979,10 +2979,10 @@
         <v>27</v>
       </c>
       <c r="C185">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D185">
-        <v>0.4414146</v>
+        <v>0.4710383</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -2993,10 +2993,10 @@
         <v>27</v>
       </c>
       <c r="C186">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D186">
-        <v>0.4414146</v>
+        <v>0.4710383</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3007,10 +3007,10 @@
         <v>27</v>
       </c>
       <c r="C187">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D187">
-        <v>0.4414146</v>
+        <v>0.4710383</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3021,10 +3021,10 @@
         <v>27</v>
       </c>
       <c r="C188">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D188">
-        <v>0.4414146</v>
+        <v>0.4710383</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3035,10 +3035,10 @@
         <v>27</v>
       </c>
       <c r="C189">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D189">
-        <v>0.4414146</v>
+        <v>0.4710383</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3049,10 +3049,10 @@
         <v>27</v>
       </c>
       <c r="C190">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D190">
-        <v>0.4414146</v>
+        <v>0.4710383</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3063,10 +3063,10 @@
         <v>28</v>
       </c>
       <c r="C191">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D191">
-        <v>0.4475087</v>
+        <v>0.4710167</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3077,10 +3077,10 @@
         <v>28</v>
       </c>
       <c r="C192">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D192">
-        <v>0.4475087</v>
+        <v>0.4710167</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3091,10 +3091,10 @@
         <v>28</v>
       </c>
       <c r="C193">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D193">
-        <v>0.4475087</v>
+        <v>0.4710167</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3105,10 +3105,10 @@
         <v>28</v>
       </c>
       <c r="C194">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D194">
-        <v>0.4475087</v>
+        <v>0.4710167</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3119,10 +3119,10 @@
         <v>28</v>
       </c>
       <c r="C195">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D195">
-        <v>0.4475087</v>
+        <v>0.4710167</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3133,10 +3133,10 @@
         <v>28</v>
       </c>
       <c r="C196">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D196">
-        <v>0.4475087</v>
+        <v>0.4710167</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3147,10 +3147,10 @@
         <v>28</v>
       </c>
       <c r="C197">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D197">
-        <v>0.4475087</v>
+        <v>0.4710167</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3161,10 +3161,10 @@
         <v>29</v>
       </c>
       <c r="C198">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D198">
-        <v>0.4514434</v>
+        <v>0.4685538</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3175,10 +3175,10 @@
         <v>29</v>
       </c>
       <c r="C199">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D199">
-        <v>0.4514434</v>
+        <v>0.4685538</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3189,10 +3189,10 @@
         <v>29</v>
       </c>
       <c r="C200">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D200">
-        <v>0.4514434</v>
+        <v>0.4685538</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3203,10 +3203,10 @@
         <v>29</v>
       </c>
       <c r="C201">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D201">
-        <v>0.4514434</v>
+        <v>0.4685538</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3217,10 +3217,10 @@
         <v>29</v>
       </c>
       <c r="C202">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D202">
-        <v>0.4514434</v>
+        <v>0.4685538</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3231,10 +3231,10 @@
         <v>29</v>
       </c>
       <c r="C203">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D203">
-        <v>0.4514434</v>
+        <v>0.4685538</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3245,10 +3245,10 @@
         <v>29</v>
       </c>
       <c r="C204">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D204">
-        <v>0.4514434</v>
+        <v>0.4685538</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3259,10 +3259,10 @@
         <v>30</v>
       </c>
       <c r="C205">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D205">
-        <v>0.4540283</v>
+        <v>0.4645597</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3273,10 +3273,10 @@
         <v>30</v>
       </c>
       <c r="C206">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D206">
-        <v>0.4540283</v>
+        <v>0.4645597</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3287,10 +3287,10 @@
         <v>30</v>
       </c>
       <c r="C207">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D207">
-        <v>0.4540283</v>
+        <v>0.4645597</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3301,10 +3301,10 @@
         <v>30</v>
       </c>
       <c r="C208">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D208">
-        <v>0.4540283</v>
+        <v>0.4645597</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3315,10 +3315,10 @@
         <v>30</v>
       </c>
       <c r="C209">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D209">
-        <v>0.4540283</v>
+        <v>0.4645597</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3329,10 +3329,10 @@
         <v>30</v>
       </c>
       <c r="C210">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D210">
-        <v>0.4540283</v>
+        <v>0.4645597</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3343,10 +3343,10 @@
         <v>30</v>
       </c>
       <c r="C211">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D211">
-        <v>0.4540283</v>
+        <v>0.4645597</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3357,10 +3357,10 @@
         <v>31</v>
       </c>
       <c r="C212">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D212">
-        <v>0.4558204</v>
+        <v>0.4593807</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3371,10 +3371,10 @@
         <v>31</v>
       </c>
       <c r="C213">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D213">
-        <v>0.4558204</v>
+        <v>0.4593807</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3385,10 +3385,10 @@
         <v>31</v>
       </c>
       <c r="C214">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D214">
-        <v>0.4558204</v>
+        <v>0.4593807</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3399,10 +3399,10 @@
         <v>31</v>
       </c>
       <c r="C215">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D215">
-        <v>0.4558204</v>
+        <v>0.4593807</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3413,10 +3413,10 @@
         <v>31</v>
       </c>
       <c r="C216">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D216">
-        <v>0.4558204</v>
+        <v>0.4593807</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3427,10 +3427,10 @@
         <v>31</v>
       </c>
       <c r="C217">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D217">
-        <v>0.4558204</v>
+        <v>0.4593807</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3441,10 +3441,10 @@
         <v>31</v>
       </c>
       <c r="C218">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D218">
-        <v>0.4558204</v>
+        <v>0.4593807</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3455,10 +3455,10 @@
         <v>32</v>
       </c>
       <c r="C219">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D219">
-        <v>0.4571071</v>
+        <v>0.4530184</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3469,10 +3469,10 @@
         <v>32</v>
       </c>
       <c r="C220">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D220">
-        <v>0.4571071</v>
+        <v>0.4530184</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3483,10 +3483,10 @@
         <v>32</v>
       </c>
       <c r="C221">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D221">
-        <v>0.4571071</v>
+        <v>0.4530184</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3497,10 +3497,10 @@
         <v>32</v>
       </c>
       <c r="C222">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D222">
-        <v>0.4571071</v>
+        <v>0.4530184</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3511,10 +3511,10 @@
         <v>32</v>
       </c>
       <c r="C223">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D223">
-        <v>0.4571071</v>
+        <v>0.4530184</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3525,10 +3525,10 @@
         <v>32</v>
       </c>
       <c r="C224">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D224">
-        <v>0.4571071</v>
+        <v>0.4530184</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3539,10 +3539,10 @@
         <v>32</v>
       </c>
       <c r="C225">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D225">
-        <v>0.4571071</v>
+        <v>0.4530184</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3553,10 +3553,10 @@
         <v>33</v>
       </c>
       <c r="C226">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D226">
-        <v>0.4578865</v>
+        <v>0.4453098</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3567,10 +3567,10 @@
         <v>33</v>
       </c>
       <c r="C227">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D227">
-        <v>0.4578865</v>
+        <v>0.4453098</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3581,10 +3581,10 @@
         <v>33</v>
       </c>
       <c r="C228">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D228">
-        <v>0.4578865</v>
+        <v>0.4453098</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3595,10 +3595,10 @@
         <v>33</v>
       </c>
       <c r="C229">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D229">
-        <v>0.4578865</v>
+        <v>0.4453098</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3609,10 +3609,10 @@
         <v>33</v>
       </c>
       <c r="C230">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D230">
-        <v>0.4578865</v>
+        <v>0.4453098</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3623,10 +3623,10 @@
         <v>33</v>
       </c>
       <c r="C231">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D231">
-        <v>0.4578865</v>
+        <v>0.4453098</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3637,10 +3637,10 @@
         <v>33</v>
       </c>
       <c r="C232">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D232">
-        <v>0.4578865</v>
+        <v>0.4453098</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3651,10 +3651,10 @@
         <v>34</v>
       </c>
       <c r="C233">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D233">
-        <v>0.4578663</v>
+        <v>0.4360848</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3665,10 +3665,10 @@
         <v>34</v>
       </c>
       <c r="C234">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D234">
-        <v>0.4578663</v>
+        <v>0.4360848</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3679,10 +3679,10 @@
         <v>34</v>
       </c>
       <c r="C235">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D235">
-        <v>0.4578663</v>
+        <v>0.4360848</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3693,10 +3693,10 @@
         <v>34</v>
       </c>
       <c r="C236">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D236">
-        <v>0.4578663</v>
+        <v>0.4360848</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3707,10 +3707,10 @@
         <v>34</v>
       </c>
       <c r="C237">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D237">
-        <v>0.4578663</v>
+        <v>0.4360848</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3721,10 +3721,10 @@
         <v>34</v>
       </c>
       <c r="C238">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D238">
-        <v>0.4578663</v>
+        <v>0.4360848</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -3735,10 +3735,10 @@
         <v>34</v>
       </c>
       <c r="C239">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D239">
-        <v>0.4578663</v>
+        <v>0.4360848</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -3749,10 +3749,10 @@
         <v>35</v>
       </c>
       <c r="C240">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D240">
-        <v>0.4565129</v>
+        <v>0.4253109</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -3763,10 +3763,10 @@
         <v>35</v>
       </c>
       <c r="C241">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D241">
-        <v>0.4565129</v>
+        <v>0.4253109</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -3777,10 +3777,10 @@
         <v>35</v>
       </c>
       <c r="C242">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D242">
-        <v>0.4565129</v>
+        <v>0.4253109</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -3791,10 +3791,10 @@
         <v>35</v>
       </c>
       <c r="C243">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D243">
-        <v>0.4565129</v>
+        <v>0.4253109</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -3805,10 +3805,10 @@
         <v>35</v>
       </c>
       <c r="C244">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D244">
-        <v>0.4565129</v>
+        <v>0.4253109</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -3819,10 +3819,10 @@
         <v>35</v>
       </c>
       <c r="C245">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D245">
-        <v>0.4565129</v>
+        <v>0.4253109</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -3833,10 +3833,10 @@
         <v>35</v>
       </c>
       <c r="C246">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D246">
-        <v>0.4565129</v>
+        <v>0.4253109</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -3847,10 +3847,10 @@
         <v>36</v>
       </c>
       <c r="C247">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D247">
-        <v>0.4531566</v>
+        <v>0.4131955</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -3861,10 +3861,10 @@
         <v>36</v>
       </c>
       <c r="C248">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D248">
-        <v>0.4531566</v>
+        <v>0.4131955</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -3875,10 +3875,10 @@
         <v>36</v>
       </c>
       <c r="C249">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D249">
-        <v>0.4531566</v>
+        <v>0.4131955</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -3889,10 +3889,10 @@
         <v>36</v>
       </c>
       <c r="C250">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D250">
-        <v>0.4531566</v>
+        <v>0.4131955</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -3903,10 +3903,10 @@
         <v>36</v>
       </c>
       <c r="C251">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D251">
-        <v>0.4531566</v>
+        <v>0.4131955</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -3917,10 +3917,10 @@
         <v>36</v>
       </c>
       <c r="C252">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D252">
-        <v>0.4531566</v>
+        <v>0.4131955</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -3931,10 +3931,10 @@
         <v>36</v>
       </c>
       <c r="C253">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D253">
-        <v>0.4531566</v>
+        <v>0.4131955</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -3945,10 +3945,10 @@
         <v>37</v>
       </c>
       <c r="C254">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D254">
-        <v>0.4471211</v>
+        <v>0.4001788</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -3959,10 +3959,10 @@
         <v>37</v>
       </c>
       <c r="C255">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D255">
-        <v>0.4471211</v>
+        <v>0.4001788</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -3973,10 +3973,10 @@
         <v>37</v>
       </c>
       <c r="C256">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D256">
-        <v>0.4471211</v>
+        <v>0.4001788</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -3987,10 +3987,10 @@
         <v>37</v>
       </c>
       <c r="C257">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D257">
-        <v>0.4471211</v>
+        <v>0.4001788</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -4001,10 +4001,10 @@
         <v>37</v>
       </c>
       <c r="C258">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D258">
-        <v>0.4471211</v>
+        <v>0.4001788</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -4015,10 +4015,10 @@
         <v>37</v>
       </c>
       <c r="C259">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D259">
-        <v>0.4471211</v>
+        <v>0.4001788</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -4029,10 +4029,10 @@
         <v>37</v>
       </c>
       <c r="C260">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D260">
-        <v>0.4471211</v>
+        <v>0.4001788</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -4043,10 +4043,10 @@
         <v>38</v>
       </c>
       <c r="C261">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D261">
-        <v>0.4378224</v>
+        <v>0.3867581</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4057,10 +4057,10 @@
         <v>38</v>
       </c>
       <c r="C262">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D262">
-        <v>0.4378224</v>
+        <v>0.3867581</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -4071,10 +4071,10 @@
         <v>38</v>
       </c>
       <c r="C263">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D263">
-        <v>0.4378224</v>
+        <v>0.3867581</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -4085,10 +4085,10 @@
         <v>38</v>
       </c>
       <c r="C264">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D264">
-        <v>0.4378224</v>
+        <v>0.3867581</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -4099,10 +4099,10 @@
         <v>38</v>
       </c>
       <c r="C265">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D265">
-        <v>0.4378224</v>
+        <v>0.3867581</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -4113,10 +4113,10 @@
         <v>38</v>
       </c>
       <c r="C266">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D266">
-        <v>0.4378224</v>
+        <v>0.3867581</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -4127,10 +4127,10 @@
         <v>38</v>
       </c>
       <c r="C267">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D267">
-        <v>0.4378224</v>
+        <v>0.3867581</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -4141,10 +4141,10 @@
         <v>39</v>
       </c>
       <c r="C268">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D268">
-        <v>0.4248062</v>
+        <v>0.3731817</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -4155,10 +4155,10 @@
         <v>39</v>
       </c>
       <c r="C269">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D269">
-        <v>0.4248062</v>
+        <v>0.3731817</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -4169,10 +4169,10 @@
         <v>39</v>
       </c>
       <c r="C270">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D270">
-        <v>0.4248062</v>
+        <v>0.3731817</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -4183,10 +4183,10 @@
         <v>39</v>
       </c>
       <c r="C271">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D271">
-        <v>0.4248062</v>
+        <v>0.3731817</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -4197,10 +4197,10 @@
         <v>39</v>
       </c>
       <c r="C272">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D272">
-        <v>0.4248062</v>
+        <v>0.3731817</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -4211,10 +4211,10 @@
         <v>39</v>
       </c>
       <c r="C273">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D273">
-        <v>0.4248062</v>
+        <v>0.3731817</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -4225,10 +4225,10 @@
         <v>39</v>
       </c>
       <c r="C274">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D274">
-        <v>0.4248062</v>
+        <v>0.3731817</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -4239,10 +4239,10 @@
         <v>40</v>
       </c>
       <c r="C275">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D275">
-        <v>0.4077434</v>
+        <v>0.359152</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -4253,10 +4253,10 @@
         <v>40</v>
       </c>
       <c r="C276">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D276">
-        <v>0.4077434</v>
+        <v>0.359152</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -4267,10 +4267,10 @@
         <v>40</v>
       </c>
       <c r="C277">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D277">
-        <v>0.4077434</v>
+        <v>0.359152</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -4281,10 +4281,10 @@
         <v>40</v>
       </c>
       <c r="C278">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D278">
-        <v>0.4077434</v>
+        <v>0.359152</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -4295,10 +4295,10 @@
         <v>40</v>
       </c>
       <c r="C279">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D279">
-        <v>0.4077434</v>
+        <v>0.359152</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -4309,10 +4309,10 @@
         <v>40</v>
       </c>
       <c r="C280">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D280">
-        <v>0.4077434</v>
+        <v>0.359152</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -4323,10 +4323,10 @@
         <v>40</v>
       </c>
       <c r="C281">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D281">
-        <v>0.4077434</v>
+        <v>0.359152</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -4337,10 +4337,10 @@
         <v>41</v>
       </c>
       <c r="C282">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D282">
-        <v>0.3864316</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -4351,10 +4351,10 @@
         <v>41</v>
       </c>
       <c r="C283">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D283">
-        <v>0.3864316</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -4365,10 +4365,10 @@
         <v>41</v>
       </c>
       <c r="C284">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D284">
-        <v>0.3864316</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -4379,10 +4379,10 @@
         <v>41</v>
       </c>
       <c r="C285">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D285">
-        <v>0.3864316</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4393,10 +4393,10 @@
         <v>41</v>
       </c>
       <c r="C286">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D286">
-        <v>0.3864316</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -4407,10 +4407,10 @@
         <v>41</v>
       </c>
       <c r="C287">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D287">
-        <v>0.3864316</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -4421,10 +4421,10 @@
         <v>41</v>
       </c>
       <c r="C288">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D288">
-        <v>0.3864316</v>
+        <v>0.3436908</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -4435,10 +4435,10 @@
         <v>42</v>
       </c>
       <c r="C289">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D289">
-        <v>0.3608309</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -4449,10 +4449,10 @@
         <v>42</v>
       </c>
       <c r="C290">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D290">
-        <v>0.3608309</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -4463,10 +4463,10 @@
         <v>42</v>
       </c>
       <c r="C291">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D291">
-        <v>0.3608309</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -4477,10 +4477,10 @@
         <v>42</v>
       </c>
       <c r="C292">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D292">
-        <v>0.3608309</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -4491,10 +4491,10 @@
         <v>42</v>
       </c>
       <c r="C293">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D293">
-        <v>0.3608309</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -4505,10 +4505,10 @@
         <v>42</v>
       </c>
       <c r="C294">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D294">
-        <v>0.3608309</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -4519,10 +4519,10 @@
         <v>42</v>
       </c>
       <c r="C295">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D295">
-        <v>0.3608309</v>
+        <v>0.3252464</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -4533,10 +4533,10 @@
         <v>43</v>
       </c>
       <c r="C296">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D296">
-        <v>0.3311315</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -4547,10 +4547,10 @@
         <v>43</v>
       </c>
       <c r="C297">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D297">
-        <v>0.3311315</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -4561,10 +4561,10 @@
         <v>43</v>
       </c>
       <c r="C298">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D298">
-        <v>0.3311315</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -4575,10 +4575,10 @@
         <v>43</v>
       </c>
       <c r="C299">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D299">
-        <v>0.3311315</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -4589,10 +4589,10 @@
         <v>43</v>
       </c>
       <c r="C300">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D300">
-        <v>0.3311315</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -4603,10 +4603,10 @@
         <v>43</v>
       </c>
       <c r="C301">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D301">
-        <v>0.3311315</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -4617,10 +4617,10 @@
         <v>43</v>
       </c>
       <c r="C302">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D302">
-        <v>0.3311315</v>
+        <v>0.3021063</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -4631,10 +4631,10 @@
         <v>44</v>
       </c>
       <c r="C303">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D303">
-        <v>0.2978617</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -4645,10 +4645,10 @@
         <v>44</v>
       </c>
       <c r="C304">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D304">
-        <v>0.2978617</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -4659,10 +4659,10 @@
         <v>44</v>
       </c>
       <c r="C305">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D305">
-        <v>0.2978617</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -4673,10 +4673,10 @@
         <v>44</v>
       </c>
       <c r="C306">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D306">
-        <v>0.2978617</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -4687,10 +4687,10 @@
         <v>44</v>
       </c>
       <c r="C307">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D307">
-        <v>0.2978617</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -4701,10 +4701,10 @@
         <v>44</v>
       </c>
       <c r="C308">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D308">
-        <v>0.2978617</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -4715,10 +4715,10 @@
         <v>44</v>
       </c>
       <c r="C309">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D309">
-        <v>0.2978617</v>
+        <v>0.2732052</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4729,10 +4729,10 @@
         <v>45</v>
       </c>
       <c r="C310">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D310">
-        <v>0.2620732</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -4743,10 +4743,10 @@
         <v>45</v>
       </c>
       <c r="C311">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D311">
-        <v>0.2620732</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -4757,10 +4757,10 @@
         <v>45</v>
       </c>
       <c r="C312">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D312">
-        <v>0.2620732</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -4771,10 +4771,10 @@
         <v>45</v>
       </c>
       <c r="C313">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D313">
-        <v>0.2620732</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -4785,10 +4785,10 @@
         <v>45</v>
       </c>
       <c r="C314">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D314">
-        <v>0.2620732</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -4799,10 +4799,10 @@
         <v>45</v>
       </c>
       <c r="C315">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D315">
-        <v>0.2620732</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -4813,10 +4813,10 @@
         <v>45</v>
       </c>
       <c r="C316">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D316">
-        <v>0.2620732</v>
+        <v>0.2392081</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -4827,10 +4827,10 @@
         <v>46</v>
       </c>
       <c r="C317">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D317">
-        <v>0.2255623</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -4841,10 +4841,10 @@
         <v>46</v>
       </c>
       <c r="C318">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D318">
-        <v>0.2255623</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -4855,10 +4855,10 @@
         <v>46</v>
       </c>
       <c r="C319">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D319">
-        <v>0.2255623</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -4869,10 +4869,10 @@
         <v>46</v>
       </c>
       <c r="C320">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D320">
-        <v>0.2255623</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="321" spans="1:4">
@@ -4883,10 +4883,10 @@
         <v>46</v>
       </c>
       <c r="C321">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D321">
-        <v>0.2255623</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="322" spans="1:4">
@@ -4897,10 +4897,10 @@
         <v>46</v>
       </c>
       <c r="C322">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D322">
-        <v>0.2255623</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="323" spans="1:4">
@@ -4911,10 +4911,10 @@
         <v>46</v>
       </c>
       <c r="C323">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D323">
-        <v>0.2255623</v>
+        <v>0.2031097</v>
       </c>
     </row>
     <row r="324" spans="1:4">
@@ -4925,10 +4925,10 @@
         <v>47</v>
       </c>
       <c r="C324">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D324">
-        <v>0.1908385</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -4939,10 +4939,10 @@
         <v>47</v>
       </c>
       <c r="C325">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D325">
-        <v>0.1908385</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="326" spans="1:4">
@@ -4953,10 +4953,10 @@
         <v>47</v>
       </c>
       <c r="C326">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D326">
-        <v>0.1908385</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="327" spans="1:4">
@@ -4967,10 +4967,10 @@
         <v>47</v>
       </c>
       <c r="C327">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D327">
-        <v>0.1908385</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="328" spans="1:4">
@@ -4981,10 +4981,10 @@
         <v>47</v>
       </c>
       <c r="C328">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D328">
-        <v>0.1908385</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="329" spans="1:4">
@@ -4995,10 +4995,10 @@
         <v>47</v>
       </c>
       <c r="C329">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D329">
-        <v>0.1908385</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -5009,10 +5009,10 @@
         <v>47</v>
       </c>
       <c r="C330">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D330">
-        <v>0.1908385</v>
+        <v>0.1693216</v>
       </c>
     </row>
     <row r="331" spans="1:4">
@@ -5023,10 +5023,10 @@
         <v>48</v>
       </c>
       <c r="C331">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D331">
-        <v>0.1605056</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -5037,10 +5037,10 @@
         <v>48</v>
       </c>
       <c r="C332">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D332">
-        <v>0.1605056</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="333" spans="1:4">
@@ -5051,10 +5051,10 @@
         <v>48</v>
       </c>
       <c r="C333">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D333">
-        <v>0.1605056</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5065,10 +5065,10 @@
         <v>48</v>
       </c>
       <c r="C334">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D334">
-        <v>0.1605056</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="335" spans="1:4">
@@ -5079,10 +5079,10 @@
         <v>48</v>
       </c>
       <c r="C335">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D335">
-        <v>0.1605056</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="336" spans="1:4">
@@ -5093,10 +5093,10 @@
         <v>48</v>
       </c>
       <c r="C336">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D336">
-        <v>0.1605056</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="337" spans="1:4">
@@ -5107,10 +5107,10 @@
         <v>48</v>
       </c>
       <c r="C337">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D337">
-        <v>0.1605056</v>
+        <v>0.1415221</v>
       </c>
     </row>
     <row r="338" spans="1:4">
@@ -5121,10 +5121,10 @@
         <v>49</v>
       </c>
       <c r="C338">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D338">
-        <v>0.1362931</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="339" spans="1:4">
@@ -5135,10 +5135,10 @@
         <v>49</v>
       </c>
       <c r="C339">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D339">
-        <v>0.1362931</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -5149,10 +5149,10 @@
         <v>49</v>
       </c>
       <c r="C340">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D340">
-        <v>0.1362931</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="341" spans="1:4">
@@ -5163,10 +5163,10 @@
         <v>49</v>
       </c>
       <c r="C341">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D341">
-        <v>0.1362931</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="342" spans="1:4">
@@ -5177,10 +5177,10 @@
         <v>49</v>
       </c>
       <c r="C342">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D342">
-        <v>0.1362931</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -5191,10 +5191,10 @@
         <v>49</v>
       </c>
       <c r="C343">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D343">
-        <v>0.1362931</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="344" spans="1:4">
@@ -5205,10 +5205,10 @@
         <v>49</v>
       </c>
       <c r="C344">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D344">
-        <v>0.1362931</v>
+        <v>0.1211218</v>
       </c>
     </row>
     <row r="345" spans="1:4">
@@ -5219,10 +5219,10 @@
         <v>50</v>
       </c>
       <c r="C345">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D345">
-        <v>0.1185185</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="346" spans="1:4">
@@ -5233,10 +5233,10 @@
         <v>50</v>
       </c>
       <c r="C346">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D346">
-        <v>0.1185185</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="347" spans="1:4">
@@ -5247,10 +5247,10 @@
         <v>50</v>
       </c>
       <c r="C347">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D347">
-        <v>0.1185185</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="348" spans="1:4">
@@ -5261,10 +5261,10 @@
         <v>50</v>
       </c>
       <c r="C348">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D348">
-        <v>0.1185185</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="349" spans="1:4">
@@ -5275,10 +5275,10 @@
         <v>50</v>
       </c>
       <c r="C349">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D349">
-        <v>0.1185185</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="350" spans="1:4">
@@ -5289,10 +5289,10 @@
         <v>50</v>
       </c>
       <c r="C350">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D350">
-        <v>0.1185185</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="351" spans="1:4">
@@ -5303,10 +5303,10 @@
         <v>50</v>
       </c>
       <c r="C351">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D351">
-        <v>0.1185185</v>
+        <v>0.1074483</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -5317,10 +5317,10 @@
         <v>51</v>
       </c>
       <c r="C352">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D352">
-        <v>0.1063507</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="353" spans="1:4">
@@ -5331,10 +5331,10 @@
         <v>51</v>
       </c>
       <c r="C353">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D353">
-        <v>0.1063507</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="354" spans="1:4">
@@ -5345,10 +5345,10 @@
         <v>51</v>
       </c>
       <c r="C354">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D354">
-        <v>0.1063507</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="355" spans="1:4">
@@ -5359,10 +5359,10 @@
         <v>51</v>
       </c>
       <c r="C355">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D355">
-        <v>0.1063507</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -5373,10 +5373,10 @@
         <v>51</v>
       </c>
       <c r="C356">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D356">
-        <v>0.1063507</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="357" spans="1:4">
@@ -5387,10 +5387,10 @@
         <v>51</v>
       </c>
       <c r="C357">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D357">
-        <v>0.1063507</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5401,10 +5401,10 @@
         <v>51</v>
       </c>
       <c r="C358">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D358">
-        <v>0.1063507</v>
+        <v>0.09887079999999999</v>
       </c>
     </row>
     <row r="359" spans="1:4">
@@ -5415,10 +5415,10 @@
         <v>52</v>
       </c>
       <c r="C359">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D359">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5429,10 +5429,10 @@
         <v>52</v>
       </c>
       <c r="C360">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D360">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5443,10 +5443,10 @@
         <v>52</v>
       </c>
       <c r="C361">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D361">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -5457,10 +5457,10 @@
         <v>52</v>
       </c>
       <c r="C362">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D362">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="363" spans="1:4">
@@ -5471,10 +5471,10 @@
         <v>52</v>
       </c>
       <c r="C363">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D363">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="364" spans="1:4">
@@ -5485,10 +5485,10 @@
         <v>52</v>
       </c>
       <c r="C364">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D364">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="365" spans="1:4">
@@ -5499,10 +5499,10 @@
         <v>52</v>
       </c>
       <c r="C365">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D365">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -5513,10 +5513,10 @@
         <v>52</v>
       </c>
       <c r="C366">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D366">
-        <v>0.0980685</v>
+        <v>0.09348770000000001</v>
       </c>
     </row>
   </sheetData>
